--- a/Jogos_do_Dia/2023-09-09_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-09-09_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="175">
   <si>
     <t>League</t>
   </si>
@@ -145,15 +145,15 @@
     <t>Portugal Liga NOS</t>
   </si>
   <si>
+    <t>Brazil Serie C</t>
+  </si>
+  <si>
     <t>Brazil Serie B</t>
   </si>
   <si>
     <t>Paraguay Division Profesional</t>
   </si>
   <si>
-    <t>Brazil Serie C</t>
-  </si>
-  <si>
     <t>USA MLS</t>
   </si>
   <si>
@@ -217,6 +217,12 @@
     <t>20:45:00</t>
   </si>
   <si>
+    <t>21:30:00</t>
+  </si>
+  <si>
+    <t>23:30:00</t>
+  </si>
+  <si>
     <t>Mito Hollyhock</t>
   </si>
   <si>
@@ -232,12 +238,12 @@
     <t>Shimizu S-Pulse</t>
   </si>
   <si>
+    <t>V-Varen Nagasaki</t>
+  </si>
+  <si>
     <t>Jubilo Iwata</t>
   </si>
   <si>
-    <t>V-Varen Nagasaki</t>
-  </si>
-  <si>
     <t>JEF United</t>
   </si>
   <si>
@@ -262,42 +268,42 @@
     <t>Salford City</t>
   </si>
   <si>
+    <t>Swindon Town</t>
+  </si>
+  <si>
+    <t>Accrington Stanley</t>
+  </si>
+  <si>
+    <t>Colchester United</t>
+  </si>
+  <si>
+    <t>Crawley Town</t>
+  </si>
+  <si>
+    <t>Gillingham</t>
+  </si>
+  <si>
+    <t>Milton Keynes Dons</t>
+  </si>
+  <si>
     <t>AFC Wimbledon</t>
   </si>
   <si>
-    <t>Accrington Stanley</t>
-  </si>
-  <si>
-    <t>Colchester United</t>
-  </si>
-  <si>
-    <t>Crawley Town</t>
-  </si>
-  <si>
     <t>Forest Green Rovers</t>
   </si>
   <si>
-    <t>Milton Keynes Dons</t>
-  </si>
-  <si>
-    <t>Swindon Town</t>
-  </si>
-  <si>
-    <t>Gillingham</t>
-  </si>
-  <si>
     <t>Fleetwood Town</t>
   </si>
   <si>
     <t>Lincoln City</t>
   </si>
   <si>
+    <t>Reading</t>
+  </si>
+  <si>
     <t>Wrexham</t>
   </si>
   <si>
-    <t>Reading</t>
-  </si>
-  <si>
     <t>Shrewsbury Town</t>
   </si>
   <si>
@@ -340,6 +346,9 @@
     <t>Leganés</t>
   </si>
   <si>
+    <t>Amazonas</t>
+  </si>
+  <si>
     <t>Ponte Preta</t>
   </si>
   <si>
@@ -349,9 +358,6 @@
     <t>Cerro Largo</t>
   </si>
   <si>
-    <t>Amazonas</t>
-  </si>
-  <si>
     <t>Brusque</t>
   </si>
   <si>
@@ -370,6 +376,12 @@
     <t>Sport Recife</t>
   </si>
   <si>
+    <t>Minnesota United</t>
+  </si>
+  <si>
+    <t>Portland Timbers</t>
+  </si>
+  <si>
     <t>Zweigen Kanazawa</t>
   </si>
   <si>
@@ -385,12 +397,12 @@
     <t>Montedio Yamagata</t>
   </si>
   <si>
+    <t>ThespaKusatsu Gunma</t>
+  </si>
+  <si>
     <t>Omiya Ardija</t>
   </si>
   <si>
-    <t>ThespaKusatsu Gunma</t>
-  </si>
-  <si>
     <t>Blaublitz Akita</t>
   </si>
   <si>
@@ -415,42 +427,42 @@
     <t>Walsall</t>
   </si>
   <si>
+    <t>Sutton United</t>
+  </si>
+  <si>
+    <t>Mansfield Town</t>
+  </si>
+  <si>
+    <t>Tranmere Rovers</t>
+  </si>
+  <si>
+    <t>Newport County</t>
+  </si>
+  <si>
+    <t>Harrogate Town</t>
+  </si>
+  <si>
+    <t>Notts County</t>
+  </si>
+  <si>
     <t>Stockport County</t>
   </si>
   <si>
-    <t>Mansfield Town</t>
-  </si>
-  <si>
-    <t>Tranmere Rovers</t>
-  </si>
-  <si>
-    <t>Newport County</t>
-  </si>
-  <si>
     <t>Crewe Alexandra</t>
   </si>
   <si>
-    <t>Notts County</t>
-  </si>
-  <si>
-    <t>Sutton United</t>
-  </si>
-  <si>
-    <t>Harrogate Town</t>
-  </si>
-  <si>
     <t>Blackpool</t>
   </si>
   <si>
     <t>Oxford United</t>
   </si>
   <si>
+    <t>Bristol Rovers</t>
+  </si>
+  <si>
     <t>Doncaster Rovers</t>
   </si>
   <si>
-    <t>Bristol Rovers</t>
-  </si>
-  <si>
     <t>Bolton Wanderers</t>
   </si>
   <si>
@@ -493,6 +505,9 @@
     <t>SD Huesca</t>
   </si>
   <si>
+    <t>Paysandu</t>
+  </si>
+  <si>
     <t>Sampaio Corrêa</t>
   </si>
   <si>
@@ -502,9 +517,6 @@
     <t>Fénix</t>
   </si>
   <si>
-    <t>Paysandu</t>
-  </si>
-  <si>
     <t>São Bernardo</t>
   </si>
   <si>
@@ -521,6 +533,12 @@
   </si>
   <si>
     <t>Criciúma</t>
+  </si>
+  <si>
+    <t>New England Revolution</t>
+  </si>
+  <si>
+    <t>Los Angeles FC</t>
   </si>
 </sst>
 </file>
@@ -882,7 +900,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI52"/>
+  <dimension ref="A1:AI54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1009,19 +1027,19 @@
         <v>34</v>
       </c>
       <c r="E2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="G2">
-        <v>2.3</v>
+        <v>1.91</v>
       </c>
       <c r="H2">
-        <v>3.2</v>
+        <v>3.13</v>
       </c>
       <c r="I2">
-        <v>2.7</v>
+        <v>3.75</v>
       </c>
       <c r="J2">
         <v>1.03</v>
@@ -1036,10 +1054,10 @@
         <v>3.6</v>
       </c>
       <c r="N2">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="O2">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="P2">
         <v>1.39</v>
@@ -1116,19 +1134,19 @@
         <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F3" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="G3">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="H3">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I3">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="J3">
         <v>1.05</v>
@@ -1143,7 +1161,7 @@
         <v>3</v>
       </c>
       <c r="N3">
-        <v>1.95</v>
+        <v>2.01</v>
       </c>
       <c r="O3">
         <v>1.75</v>
@@ -1223,19 +1241,19 @@
         <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F4" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G4">
-        <v>1.73</v>
+        <v>1.51</v>
       </c>
       <c r="H4">
-        <v>3.1</v>
+        <v>3.93</v>
       </c>
       <c r="I4">
-        <v>4.6</v>
+        <v>5.2</v>
       </c>
       <c r="J4">
         <v>1.07</v>
@@ -1250,10 +1268,10 @@
         <v>2.8</v>
       </c>
       <c r="N4">
-        <v>2.3</v>
+        <v>2.24</v>
       </c>
       <c r="O4">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="P4">
         <v>1.48</v>
@@ -1310,10 +1328,10 @@
         <v>2.16</v>
       </c>
       <c r="AH4">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="AI4">
-        <v>0</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="5" spans="1:35">
@@ -1330,19 +1348,19 @@
         <v>34</v>
       </c>
       <c r="E5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F5" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="G5">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="H5">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I5">
-        <v>2.65</v>
+        <v>3</v>
       </c>
       <c r="J5">
         <v>1.04</v>
@@ -1357,10 +1375,10 @@
         <v>3.3</v>
       </c>
       <c r="N5">
-        <v>1.87</v>
+        <v>1.92</v>
       </c>
       <c r="O5">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="P5">
         <v>1.38</v>
@@ -1437,19 +1455,19 @@
         <v>35</v>
       </c>
       <c r="E6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F6" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="G6">
-        <v>1.44</v>
+        <v>1.58</v>
       </c>
       <c r="H6">
-        <v>4.2</v>
+        <v>3.62</v>
       </c>
       <c r="I6">
-        <v>5.8</v>
+        <v>5</v>
       </c>
       <c r="J6">
         <v>1.01</v>
@@ -1464,10 +1482,10 @@
         <v>4.75</v>
       </c>
       <c r="N6">
-        <v>1.5</v>
+        <v>1.81</v>
       </c>
       <c r="O6">
-        <v>2.4</v>
+        <v>2.05</v>
       </c>
       <c r="P6">
         <v>1.35</v>
@@ -1541,100 +1559,100 @@
         <v>48</v>
       </c>
       <c r="D7">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="G7">
-        <v>1.5</v>
+        <v>1.86</v>
       </c>
       <c r="H7">
-        <v>3.8</v>
+        <v>3.28</v>
       </c>
       <c r="I7">
-        <v>5.25</v>
+        <v>3.75</v>
       </c>
       <c r="J7">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K7">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L7">
-        <v>1.2</v>
+        <v>1.29</v>
       </c>
       <c r="M7">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="N7">
-        <v>1.61</v>
+        <v>1.87</v>
       </c>
       <c r="O7">
-        <v>2.15</v>
+        <v>1.87</v>
       </c>
       <c r="P7">
-        <v>1.3</v>
+        <v>1.39</v>
       </c>
       <c r="Q7">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="R7">
-        <v>1.77</v>
+        <v>1.85</v>
       </c>
       <c r="S7">
-        <v>2.02</v>
+        <v>1.92</v>
       </c>
       <c r="T7">
-        <v>1.13</v>
+        <v>1.18</v>
       </c>
       <c r="U7">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="V7">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="W7">
-        <v>1.69</v>
+        <v>1.75</v>
       </c>
       <c r="X7">
-        <v>0.38</v>
+        <v>1.33</v>
       </c>
       <c r="Y7">
-        <v>1.81</v>
+        <v>1.38</v>
       </c>
       <c r="Z7">
-        <v>1.3</v>
+        <v>1.17</v>
       </c>
       <c r="AA7">
-        <v>3.11</v>
+        <v>2.55</v>
       </c>
       <c r="AB7">
-        <v>1.35</v>
+        <v>1.85</v>
       </c>
       <c r="AC7">
-        <v>8.699999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="AD7">
-        <v>4.26</v>
+        <v>2.35</v>
       </c>
       <c r="AE7">
-        <v>1.31</v>
+        <v>1.27</v>
       </c>
       <c r="AF7">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AG7">
-        <v>1.98</v>
+        <v>1.8</v>
       </c>
       <c r="AH7">
-        <v>2.47</v>
+        <v>2.32</v>
       </c>
       <c r="AI7">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="8" spans="1:35">
@@ -1648,100 +1666,100 @@
         <v>48</v>
       </c>
       <c r="D8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F8" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G8">
-        <v>1.8</v>
+        <v>1.58</v>
       </c>
       <c r="H8">
+        <v>3.62</v>
+      </c>
+      <c r="I8">
+        <v>5</v>
+      </c>
+      <c r="J8">
+        <v>1.02</v>
+      </c>
+      <c r="K8">
+        <v>10</v>
+      </c>
+      <c r="L8">
+        <v>1.2</v>
+      </c>
+      <c r="M8">
+        <v>4</v>
+      </c>
+      <c r="N8">
+        <v>1.67</v>
+      </c>
+      <c r="O8">
+        <v>2.13</v>
+      </c>
+      <c r="P8">
+        <v>1.3</v>
+      </c>
+      <c r="Q8">
+        <v>3.2</v>
+      </c>
+      <c r="R8">
+        <v>1.77</v>
+      </c>
+      <c r="S8">
+        <v>2.02</v>
+      </c>
+      <c r="T8">
+        <v>1.13</v>
+      </c>
+      <c r="U8">
+        <v>1.18</v>
+      </c>
+      <c r="V8">
+        <v>2.05</v>
+      </c>
+      <c r="W8">
+        <v>1.69</v>
+      </c>
+      <c r="X8">
+        <v>0.38</v>
+      </c>
+      <c r="Y8">
+        <v>1.81</v>
+      </c>
+      <c r="Z8">
+        <v>1.3</v>
+      </c>
+      <c r="AA8">
+        <v>3.11</v>
+      </c>
+      <c r="AB8">
+        <v>1.35</v>
+      </c>
+      <c r="AC8">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AD8">
+        <v>4.26</v>
+      </c>
+      <c r="AE8">
+        <v>1.31</v>
+      </c>
+      <c r="AF8">
+        <v>1.5</v>
+      </c>
+      <c r="AG8">
+        <v>1.98</v>
+      </c>
+      <c r="AH8">
+        <v>2.47</v>
+      </c>
+      <c r="AI8">
         <v>3.3</v>
-      </c>
-      <c r="I8">
-        <v>4</v>
-      </c>
-      <c r="J8">
-        <v>1.03</v>
-      </c>
-      <c r="K8">
-        <v>9</v>
-      </c>
-      <c r="L8">
-        <v>1.29</v>
-      </c>
-      <c r="M8">
-        <v>3.3</v>
-      </c>
-      <c r="N8">
-        <v>1.87</v>
-      </c>
-      <c r="O8">
-        <v>1.83</v>
-      </c>
-      <c r="P8">
-        <v>1.39</v>
-      </c>
-      <c r="Q8">
-        <v>2.8</v>
-      </c>
-      <c r="R8">
-        <v>1.85</v>
-      </c>
-      <c r="S8">
-        <v>1.92</v>
-      </c>
-      <c r="T8">
-        <v>1.18</v>
-      </c>
-      <c r="U8">
-        <v>1.22</v>
-      </c>
-      <c r="V8">
-        <v>1.95</v>
-      </c>
-      <c r="W8">
-        <v>1.75</v>
-      </c>
-      <c r="X8">
-        <v>1.33</v>
-      </c>
-      <c r="Y8">
-        <v>1.38</v>
-      </c>
-      <c r="Z8">
-        <v>1.17</v>
-      </c>
-      <c r="AA8">
-        <v>2.55</v>
-      </c>
-      <c r="AB8">
-        <v>1.85</v>
-      </c>
-      <c r="AC8">
-        <v>8.1</v>
-      </c>
-      <c r="AD8">
-        <v>2.35</v>
-      </c>
-      <c r="AE8">
-        <v>1.27</v>
-      </c>
-      <c r="AF8">
-        <v>1.43</v>
-      </c>
-      <c r="AG8">
-        <v>1.8</v>
-      </c>
-      <c r="AH8">
-        <v>2.32</v>
-      </c>
-      <c r="AI8">
-        <v>3.1</v>
       </c>
     </row>
     <row r="9" spans="1:35">
@@ -1758,19 +1776,19 @@
         <v>34</v>
       </c>
       <c r="E9" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F9" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="G9">
-        <v>1.91</v>
+        <v>1.65</v>
       </c>
       <c r="H9">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="I9">
-        <v>3.9</v>
+        <v>4.77</v>
       </c>
       <c r="J9">
         <v>1.08</v>
@@ -1785,10 +1803,10 @@
         <v>2.6</v>
       </c>
       <c r="N9">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="O9">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="P9">
         <v>1.53</v>
@@ -1836,7 +1854,7 @@
         <v>2.63</v>
       </c>
       <c r="AE9">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="AF9">
         <v>1.62</v>
@@ -1848,7 +1866,7 @@
         <v>2.72</v>
       </c>
       <c r="AI9">
-        <v>0</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="10" spans="1:35">
@@ -1865,19 +1883,19 @@
         <v>34</v>
       </c>
       <c r="E10" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F10" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="G10">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="H10">
         <v>3.1</v>
       </c>
       <c r="I10">
-        <v>3.1</v>
+        <v>3.37</v>
       </c>
       <c r="J10">
         <v>1.04</v>
@@ -1892,10 +1910,10 @@
         <v>3.3</v>
       </c>
       <c r="N10">
-        <v>1.87</v>
+        <v>1.78</v>
       </c>
       <c r="O10">
-        <v>1.83</v>
+        <v>1.97</v>
       </c>
       <c r="P10">
         <v>1.39</v>
@@ -1972,19 +1990,19 @@
         <v>7</v>
       </c>
       <c r="E11" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F11" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="G11">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="H11">
         <v>3.3</v>
       </c>
       <c r="I11">
-        <v>3.8</v>
+        <v>3.55</v>
       </c>
       <c r="J11">
         <v>1.05</v>
@@ -1999,10 +2017,10 @@
         <v>3.4</v>
       </c>
       <c r="N11">
-        <v>2.05</v>
+        <v>1.96</v>
       </c>
       <c r="O11">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="P11">
         <v>1.4</v>
@@ -2079,16 +2097,16 @@
         <v>6</v>
       </c>
       <c r="E12" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F12" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="G12">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="H12">
-        <v>3.9</v>
+        <v>4.33</v>
       </c>
       <c r="I12">
         <v>6.5</v>
@@ -2106,10 +2124,10 @@
         <v>3.75</v>
       </c>
       <c r="N12">
-        <v>1.73</v>
+        <v>1.85</v>
       </c>
       <c r="O12">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="P12">
         <v>1.33</v>
@@ -2186,19 +2204,19 @@
         <v>6</v>
       </c>
       <c r="E13" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F13" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="G13">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H13">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="I13">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="J13">
         <v>1.01</v>
@@ -2213,10 +2231,10 @@
         <v>3.64</v>
       </c>
       <c r="N13">
-        <v>1.73</v>
+        <v>1.85</v>
       </c>
       <c r="O13">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="P13">
         <v>1.35</v>
@@ -2293,19 +2311,19 @@
         <v>6</v>
       </c>
       <c r="E14" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F14" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="G14">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="H14">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I14">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="J14">
         <v>1</v>
@@ -2320,10 +2338,10 @@
         <v>3.74</v>
       </c>
       <c r="N14">
-        <v>1.73</v>
+        <v>1.85</v>
       </c>
       <c r="O14">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="P14">
         <v>1.33</v>
@@ -2400,19 +2418,19 @@
         <v>6</v>
       </c>
       <c r="E15" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F15" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="G15">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="H15">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="I15">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="J15">
         <v>1.02</v>
@@ -2427,10 +2445,10 @@
         <v>4.3</v>
       </c>
       <c r="N15">
-        <v>1.67</v>
+        <v>1.61</v>
       </c>
       <c r="O15">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="P15">
         <v>1.29</v>
@@ -2507,19 +2525,19 @@
         <v>7</v>
       </c>
       <c r="E16" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F16" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G16">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H16">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="I16">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="J16">
         <v>1.05</v>
@@ -2534,10 +2552,10 @@
         <v>3.4</v>
       </c>
       <c r="N16">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="O16">
-        <v>1.85</v>
+        <v>1.89</v>
       </c>
       <c r="P16">
         <v>1.4</v>
@@ -2614,97 +2632,97 @@
         <v>7</v>
       </c>
       <c r="E17" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F17" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="G17">
-        <v>2.9</v>
+        <v>1.95</v>
       </c>
       <c r="H17">
+        <v>3.4</v>
+      </c>
+      <c r="I17">
+        <v>3.65</v>
+      </c>
+      <c r="J17">
+        <v>1.04</v>
+      </c>
+      <c r="K17">
+        <v>13</v>
+      </c>
+      <c r="L17">
+        <v>1.26</v>
+      </c>
+      <c r="M17">
+        <v>4</v>
+      </c>
+      <c r="N17">
+        <v>1.75</v>
+      </c>
+      <c r="O17">
+        <v>1.95</v>
+      </c>
+      <c r="P17">
+        <v>1.36</v>
+      </c>
+      <c r="Q17">
+        <v>3</v>
+      </c>
+      <c r="R17">
+        <v>1.67</v>
+      </c>
+      <c r="S17">
+        <v>2.1</v>
+      </c>
+      <c r="T17">
+        <v>1.26</v>
+      </c>
+      <c r="U17">
+        <v>1.24</v>
+      </c>
+      <c r="V17">
+        <v>1.92</v>
+      </c>
+      <c r="W17">
+        <v>2</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>1.97</v>
+      </c>
+      <c r="Z17">
+        <v>1.33</v>
+      </c>
+      <c r="AA17">
+        <v>3.3</v>
+      </c>
+      <c r="AB17">
+        <v>1.55</v>
+      </c>
+      <c r="AC17">
+        <v>7.5</v>
+      </c>
+      <c r="AD17">
         <v>3.1</v>
       </c>
-      <c r="I17">
-        <v>2.5</v>
-      </c>
-      <c r="J17">
-        <v>1.07</v>
-      </c>
-      <c r="K17">
-        <v>9.5</v>
-      </c>
-      <c r="L17">
-        <v>1.4</v>
-      </c>
-      <c r="M17">
-        <v>3</v>
-      </c>
-      <c r="N17">
-        <v>2.1</v>
-      </c>
-      <c r="O17">
-        <v>1.67</v>
-      </c>
-      <c r="P17">
-        <v>1.44</v>
-      </c>
-      <c r="Q17">
-        <v>2.63</v>
-      </c>
-      <c r="R17">
-        <v>1.83</v>
-      </c>
-      <c r="S17">
-        <v>1.83</v>
-      </c>
-      <c r="T17">
-        <v>1.53</v>
-      </c>
-      <c r="U17">
-        <v>1.28</v>
-      </c>
-      <c r="V17">
-        <v>1.47</v>
-      </c>
-      <c r="W17">
-        <v>1</v>
-      </c>
-      <c r="X17">
-        <v>0</v>
-      </c>
-      <c r="Y17">
-        <v>1.61</v>
-      </c>
-      <c r="Z17">
-        <v>1.4</v>
-      </c>
-      <c r="AA17">
-        <v>3.01</v>
-      </c>
-      <c r="AB17">
-        <v>2.25</v>
-      </c>
-      <c r="AC17">
-        <v>7</v>
-      </c>
-      <c r="AD17">
-        <v>1.95</v>
-      </c>
       <c r="AE17">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AF17">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="AG17">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="AH17">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AI17">
-        <v>2.98</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="18" spans="1:35">
@@ -2721,19 +2739,19 @@
         <v>7</v>
       </c>
       <c r="E18" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F18" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="G18">
-        <v>2.37</v>
+        <v>3.3</v>
       </c>
       <c r="H18">
         <v>3.3</v>
       </c>
       <c r="I18">
-        <v>2.9</v>
+        <v>2.05</v>
       </c>
       <c r="J18">
         <v>1.05</v>
@@ -2748,10 +2766,10 @@
         <v>3.6</v>
       </c>
       <c r="N18">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="O18">
-        <v>1.85</v>
+        <v>1.89</v>
       </c>
       <c r="P18">
         <v>1.36</v>
@@ -2790,13 +2808,13 @@
         <v>3.6</v>
       </c>
       <c r="AB18">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="AC18">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD18">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="AE18">
         <v>1.24</v>
@@ -2828,19 +2846,19 @@
         <v>7</v>
       </c>
       <c r="E19" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F19" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="G19">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="H19">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I19">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="J19">
         <v>1.06</v>
@@ -2935,19 +2953,19 @@
         <v>7</v>
       </c>
       <c r="E20" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F20" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="G20">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="H20">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I20">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="J20">
         <v>1.03</v>
@@ -2962,10 +2980,10 @@
         <v>3.6</v>
       </c>
       <c r="N20">
-        <v>1.95</v>
+        <v>1.84</v>
       </c>
       <c r="O20">
-        <v>1.8</v>
+        <v>1.96</v>
       </c>
       <c r="P20">
         <v>1.4</v>
@@ -3042,97 +3060,97 @@
         <v>7</v>
       </c>
       <c r="E21" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F21" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="G21">
-        <v>2.37</v>
+        <v>1.83</v>
       </c>
       <c r="H21">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I21">
-        <v>2.9</v>
+        <v>4.3</v>
       </c>
       <c r="J21">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="K21">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="L21">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="M21">
-        <v>3.6</v>
+        <v>2.95</v>
       </c>
       <c r="N21">
-        <v>1.91</v>
+        <v>2.15</v>
       </c>
       <c r="O21">
-        <v>1.8</v>
+        <v>1.61</v>
       </c>
       <c r="P21">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Q21">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="R21">
+        <v>2</v>
+      </c>
+      <c r="S21">
         <v>1.73</v>
       </c>
-      <c r="S21">
-        <v>2</v>
-      </c>
       <c r="T21">
-        <v>1.3</v>
+        <v>1.17</v>
       </c>
       <c r="U21">
         <v>1.25</v>
       </c>
       <c r="V21">
-        <v>1.83</v>
+        <v>2.15</v>
       </c>
       <c r="W21">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="X21">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="Y21">
-        <v>1.27</v>
+        <v>1.56</v>
       </c>
       <c r="Z21">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
       <c r="AA21">
-        <v>2.62</v>
+        <v>2.86</v>
       </c>
       <c r="AB21">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AC21">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AD21">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="AE21">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AF21">
-        <v>1.34</v>
+        <v>1.5</v>
       </c>
       <c r="AG21">
-        <v>1.61</v>
+        <v>1.87</v>
       </c>
       <c r="AH21">
-        <v>2.05</v>
+        <v>2.41</v>
       </c>
       <c r="AI21">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="22" spans="1:35">
@@ -3149,19 +3167,19 @@
         <v>7</v>
       </c>
       <c r="E22" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F22" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="G22">
-        <v>2.35</v>
+        <v>2.8</v>
       </c>
       <c r="H22">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I22">
-        <v>2.87</v>
+        <v>2.25</v>
       </c>
       <c r="J22">
         <v>1.02</v>
@@ -3218,13 +3236,13 @@
         <v>2.24</v>
       </c>
       <c r="AB22">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="AC22">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AD22">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="AE22">
         <v>1.24</v>
@@ -3256,97 +3274,97 @@
         <v>7</v>
       </c>
       <c r="E23" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F23" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="G23">
+        <v>2.75</v>
+      </c>
+      <c r="H23">
+        <v>3.1</v>
+      </c>
+      <c r="I23">
+        <v>2.5</v>
+      </c>
+      <c r="J23">
+        <v>1.07</v>
+      </c>
+      <c r="K23">
+        <v>9.5</v>
+      </c>
+      <c r="L23">
+        <v>1.4</v>
+      </c>
+      <c r="M23">
+        <v>3</v>
+      </c>
+      <c r="N23">
+        <v>2.1</v>
+      </c>
+      <c r="O23">
+        <v>1.67</v>
+      </c>
+      <c r="P23">
+        <v>1.44</v>
+      </c>
+      <c r="Q23">
+        <v>2.63</v>
+      </c>
+      <c r="R23">
         <v>1.83</v>
       </c>
-      <c r="H23">
-        <v>3.6</v>
-      </c>
-      <c r="I23">
-        <v>4.2</v>
-      </c>
-      <c r="J23">
-        <v>1.04</v>
-      </c>
-      <c r="K23">
-        <v>13</v>
-      </c>
-      <c r="L23">
-        <v>1.26</v>
-      </c>
-      <c r="M23">
-        <v>4</v>
-      </c>
-      <c r="N23">
-        <v>1.75</v>
-      </c>
-      <c r="O23">
+      <c r="S23">
+        <v>1.83</v>
+      </c>
+      <c r="T23">
+        <v>1.53</v>
+      </c>
+      <c r="U23">
+        <v>1.28</v>
+      </c>
+      <c r="V23">
+        <v>1.47</v>
+      </c>
+      <c r="W23">
+        <v>1</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>1.61</v>
+      </c>
+      <c r="Z23">
+        <v>1.4</v>
+      </c>
+      <c r="AA23">
+        <v>3.01</v>
+      </c>
+      <c r="AB23">
+        <v>2.25</v>
+      </c>
+      <c r="AC23">
+        <v>7</v>
+      </c>
+      <c r="AD23">
         <v>1.95</v>
       </c>
-      <c r="P23">
-        <v>1.36</v>
-      </c>
-      <c r="Q23">
-        <v>3</v>
-      </c>
-      <c r="R23">
-        <v>1.67</v>
-      </c>
-      <c r="S23">
-        <v>2.1</v>
-      </c>
-      <c r="T23">
-        <v>1.26</v>
-      </c>
-      <c r="U23">
-        <v>1.24</v>
-      </c>
-      <c r="V23">
-        <v>1.92</v>
-      </c>
-      <c r="W23">
-        <v>2</v>
-      </c>
-      <c r="X23">
-        <v>0</v>
-      </c>
-      <c r="Y23">
-        <v>1.97</v>
-      </c>
-      <c r="Z23">
-        <v>1.33</v>
-      </c>
-      <c r="AA23">
-        <v>3.3</v>
-      </c>
-      <c r="AB23">
-        <v>1.55</v>
-      </c>
-      <c r="AC23">
-        <v>7.5</v>
-      </c>
-      <c r="AD23">
-        <v>3.1</v>
-      </c>
       <c r="AE23">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AF23">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="AG23">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="AH23">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="AI23">
-        <v>3.3</v>
+        <v>2.98</v>
       </c>
     </row>
     <row r="24" spans="1:35">
@@ -3363,97 +3381,97 @@
         <v>7</v>
       </c>
       <c r="E24" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F24" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="G24">
-        <v>1.83</v>
+        <v>2.15</v>
       </c>
       <c r="H24">
         <v>3.3</v>
       </c>
       <c r="I24">
-        <v>4.6</v>
+        <v>3.15</v>
       </c>
       <c r="J24">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="K24">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="L24">
+        <v>1.3</v>
+      </c>
+      <c r="M24">
+        <v>3.6</v>
+      </c>
+      <c r="N24">
+        <v>1.84</v>
+      </c>
+      <c r="O24">
+        <v>1.96</v>
+      </c>
+      <c r="P24">
         <v>1.4</v>
       </c>
-      <c r="M24">
-        <v>2.95</v>
-      </c>
-      <c r="N24">
-        <v>2.15</v>
-      </c>
-      <c r="O24">
-        <v>1.61</v>
-      </c>
-      <c r="P24">
-        <v>1.44</v>
-      </c>
       <c r="Q24">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R24">
+        <v>1.73</v>
+      </c>
+      <c r="S24">
         <v>2</v>
       </c>
-      <c r="S24">
-        <v>1.73</v>
-      </c>
       <c r="T24">
-        <v>1.17</v>
+        <v>1.3</v>
       </c>
       <c r="U24">
         <v>1.25</v>
       </c>
       <c r="V24">
-        <v>2.15</v>
+        <v>1.83</v>
       </c>
       <c r="W24">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="X24">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Y24">
-        <v>1.56</v>
+        <v>1.27</v>
       </c>
       <c r="Z24">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="AA24">
-        <v>2.86</v>
+        <v>2.62</v>
       </c>
       <c r="AB24">
-        <v>1.5</v>
+        <v>1.76</v>
       </c>
       <c r="AC24">
-        <v>7.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD24">
-        <v>3.3</v>
+        <v>2.45</v>
       </c>
       <c r="AE24">
-        <v>1.26</v>
+        <v>1.18</v>
       </c>
       <c r="AF24">
-        <v>1.5</v>
+        <v>1.34</v>
       </c>
       <c r="AG24">
-        <v>1.87</v>
+        <v>1.61</v>
       </c>
       <c r="AH24">
-        <v>2.41</v>
+        <v>2.05</v>
       </c>
       <c r="AI24">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="25" spans="1:35">
@@ -3470,10 +3488,10 @@
         <v>7</v>
       </c>
       <c r="E25" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F25" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="G25">
         <v>2.55</v>
@@ -3577,10 +3595,10 @@
         <v>7</v>
       </c>
       <c r="E26" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F26" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="G26">
         <v>2.47</v>
@@ -3672,7 +3690,7 @@
     </row>
     <row r="27" spans="1:35">
       <c r="A27" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B27" s="2">
         <v>45178</v>
@@ -3684,73 +3702,73 @@
         <v>7</v>
       </c>
       <c r="E27" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F27" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="G27">
-        <v>1.57</v>
+        <v>0</v>
       </c>
       <c r="H27">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="I27">
-        <v>5.5</v>
+        <v>0</v>
       </c>
       <c r="J27">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="K27">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="L27">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="M27">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N27">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="O27">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="P27">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="Q27">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="R27">
-        <v>1.73</v>
+        <v>0</v>
       </c>
       <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <v>0</v>
+      </c>
+      <c r="V27">
+        <v>0</v>
+      </c>
+      <c r="W27">
         <v>2</v>
       </c>
-      <c r="T27">
-        <v>1.09</v>
-      </c>
-      <c r="U27">
-        <v>1.14</v>
-      </c>
-      <c r="V27">
-        <v>2.9</v>
-      </c>
-      <c r="W27">
+      <c r="X27">
         <v>1.33</v>
       </c>
-      <c r="X27">
-        <v>0</v>
-      </c>
       <c r="Y27">
-        <v>2.25</v>
+        <v>1.51</v>
       </c>
       <c r="Z27">
-        <v>1.28</v>
+        <v>1.36</v>
       </c>
       <c r="AA27">
-        <v>3.53</v>
+        <v>2.87</v>
       </c>
       <c r="AB27">
         <v>0</v>
@@ -3762,24 +3780,24 @@
         <v>0</v>
       </c>
       <c r="AE27">
-        <v>1.24</v>
+        <v>0</v>
       </c>
       <c r="AF27">
-        <v>1.46</v>
+        <v>0</v>
       </c>
       <c r="AG27">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="AH27">
-        <v>2.37</v>
+        <v>0</v>
       </c>
       <c r="AI27">
-        <v>3.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:35">
       <c r="A28" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B28" s="2">
         <v>45178</v>
@@ -3791,97 +3809,97 @@
         <v>7</v>
       </c>
       <c r="E28" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F28" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>6.75</v>
       </c>
       <c r="J28">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="L28">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="M28">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N28">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="O28">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="P28">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="Q28">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="R28">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="S28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T28">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="U28">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="V28">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="W28">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="X28">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="Y28">
-        <v>1.51</v>
+        <v>2.25</v>
       </c>
       <c r="Z28">
-        <v>1.36</v>
+        <v>1.28</v>
       </c>
       <c r="AA28">
-        <v>2.87</v>
+        <v>3.53</v>
       </c>
       <c r="AB28">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="AC28">
-        <v>0</v>
+        <v>10.7</v>
       </c>
       <c r="AD28">
-        <v>0</v>
+        <v>4.37</v>
       </c>
       <c r="AE28">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AF28">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="AG28">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AH28">
-        <v>0</v>
+        <v>2.37</v>
       </c>
       <c r="AI28">
-        <v>0</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="29" spans="1:35">
@@ -3898,10 +3916,10 @@
         <v>7</v>
       </c>
       <c r="E29" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F29" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -4005,16 +4023,16 @@
         <v>7</v>
       </c>
       <c r="E30" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F30" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="G30">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="H30">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I30">
         <v>4.4</v>
@@ -4032,10 +4050,10 @@
         <v>3.4</v>
       </c>
       <c r="N30">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="O30">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="P30">
         <v>1.4</v>
@@ -4074,13 +4092,13 @@
         <v>2.22</v>
       </c>
       <c r="AB30">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AC30">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AD30">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE30">
         <v>1.24</v>
@@ -4112,10 +4130,10 @@
         <v>7</v>
       </c>
       <c r="E31" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F31" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="G31">
         <v>2.33</v>
@@ -4219,19 +4237,19 @@
         <v>7</v>
       </c>
       <c r="E32" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F32" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="G32">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="H32">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="I32">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="J32">
         <v>1.05</v>
@@ -4288,13 +4306,13 @@
         <v>2.64</v>
       </c>
       <c r="AB32">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="AC32">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AD32">
-        <v>0</v>
+        <v>3.16</v>
       </c>
       <c r="AE32">
         <v>1.22</v>
@@ -4326,19 +4344,19 @@
         <v>5</v>
       </c>
       <c r="E33" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F33" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="G33">
-        <v>2.55</v>
+        <v>2.62</v>
       </c>
       <c r="H33">
-        <v>2.75</v>
+        <v>2.87</v>
       </c>
       <c r="I33">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="J33">
         <v>1.11</v>
@@ -4347,16 +4365,16 @@
         <v>6.5</v>
       </c>
       <c r="L33">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="M33">
-        <v>2.37</v>
+        <v>2.3</v>
       </c>
       <c r="N33">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="O33">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="P33">
         <v>1.59</v>
@@ -4433,10 +4451,10 @@
         <v>5</v>
       </c>
       <c r="E34" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F34" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="G34">
         <v>2.35</v>
@@ -4502,28 +4520,28 @@
         <v>2.9</v>
       </c>
       <c r="AB34">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AC34">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AD34">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AE34">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AF34">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="AG34">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="AH34">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="AI34">
-        <v>0</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="35" spans="1:35">
@@ -4540,10 +4558,10 @@
         <v>4</v>
       </c>
       <c r="E35" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F35" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="G35">
         <v>1.7</v>
@@ -4647,19 +4665,19 @@
         <v>5</v>
       </c>
       <c r="E36" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F36" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="G36">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H36">
-        <v>2.8</v>
+        <v>2.87</v>
       </c>
       <c r="I36">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="J36">
         <v>1.11</v>
@@ -4671,13 +4689,13 @@
         <v>1.53</v>
       </c>
       <c r="M36">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="N36">
-        <v>2.55</v>
+        <v>2.75</v>
       </c>
       <c r="O36">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="P36">
         <v>1.6</v>
@@ -4754,10 +4772,10 @@
         <v>5</v>
       </c>
       <c r="E37" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F37" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="G37">
         <v>1.26</v>
@@ -4832,19 +4850,19 @@
         <v>0</v>
       </c>
       <c r="AE37">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AF37">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="AG37">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="AH37">
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="AI37">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:35">
@@ -4861,19 +4879,19 @@
         <v>3</v>
       </c>
       <c r="E38" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F38" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="G38">
-        <v>4.6</v>
+        <v>4.75</v>
       </c>
       <c r="H38">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I38">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="J38">
         <v>0</v>
@@ -4968,10 +4986,10 @@
         <v>4</v>
       </c>
       <c r="E39" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F39" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="G39">
         <v>1.91</v>
@@ -5075,10 +5093,10 @@
         <v>5</v>
       </c>
       <c r="E40" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F40" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="G40">
         <v>2.03</v>
@@ -5153,19 +5171,19 @@
         <v>0</v>
       </c>
       <c r="AE40">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AF40">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AG40">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="AH40">
-        <v>0</v>
+        <v>2.95</v>
       </c>
       <c r="AI40">
-        <v>0</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="41" spans="1:35">
@@ -5182,19 +5200,19 @@
         <v>5</v>
       </c>
       <c r="E41" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F41" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="G41">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H41">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I41">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="J41">
         <v>1.1</v>
@@ -5203,10 +5221,10 @@
         <v>6.5</v>
       </c>
       <c r="L41">
-        <v>1.57</v>
+        <v>1.52</v>
       </c>
       <c r="M41">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="N41">
         <v>2.37</v>
@@ -5289,19 +5307,19 @@
         <v>5</v>
       </c>
       <c r="E42" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F42" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="G42">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="H42">
-        <v>2.9</v>
+        <v>2.95</v>
       </c>
       <c r="I42">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="J42">
         <v>1.11</v>
@@ -5316,10 +5334,10 @@
         <v>2.35</v>
       </c>
       <c r="N42">
-        <v>2.75</v>
+        <v>2.55</v>
       </c>
       <c r="O42">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="P42">
         <v>1.57</v>
@@ -5393,100 +5411,100 @@
         <v>60</v>
       </c>
       <c r="D43">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="E43" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F43" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="G43">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H43">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="I43">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J43">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="K43">
-        <v>6.5</v>
+        <v>6.05</v>
       </c>
       <c r="L43">
+        <v>1.52</v>
+      </c>
+      <c r="M43">
+        <v>2.38</v>
+      </c>
+      <c r="N43">
+        <v>2.7</v>
+      </c>
+      <c r="O43">
+        <v>1.41</v>
+      </c>
+      <c r="P43">
         <v>1.57</v>
       </c>
-      <c r="M43">
-        <v>2.3</v>
-      </c>
-      <c r="N43">
-        <v>2.75</v>
-      </c>
-      <c r="O43">
-        <v>1.42</v>
-      </c>
-      <c r="P43">
-        <v>1.58</v>
-      </c>
       <c r="Q43">
-        <v>2.2</v>
+        <v>2.26</v>
       </c>
       <c r="R43">
-        <v>2.25</v>
+        <v>2.09</v>
       </c>
       <c r="S43">
-        <v>1.55</v>
+        <v>1.71</v>
       </c>
       <c r="T43">
-        <v>1.22</v>
+        <v>1.27</v>
       </c>
       <c r="U43">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="V43">
-        <v>1.68</v>
+        <v>1.52</v>
       </c>
       <c r="W43">
-        <v>1.62</v>
+        <v>1.78</v>
       </c>
       <c r="X43">
-        <v>0.85</v>
+        <v>0.67</v>
       </c>
       <c r="Y43">
-        <v>1.43</v>
+        <v>1.78</v>
       </c>
       <c r="Z43">
         <v>1.1</v>
       </c>
       <c r="AA43">
-        <v>2.53</v>
+        <v>2.88</v>
       </c>
       <c r="AB43">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="AC43">
-        <v>8.1</v>
+        <v>7</v>
       </c>
       <c r="AD43">
-        <v>2.86</v>
+        <v>2.8</v>
       </c>
       <c r="AE43">
-        <v>1.15</v>
+        <v>1.22</v>
       </c>
       <c r="AF43">
-        <v>1.26</v>
+        <v>1.5</v>
       </c>
       <c r="AG43">
-        <v>1.47</v>
+        <v>1.75</v>
       </c>
       <c r="AH43">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="AI43">
-        <v>2.37</v>
+        <v>2.98</v>
       </c>
     </row>
     <row r="44" spans="1:35">
@@ -5497,215 +5515,215 @@
         <v>45178</v>
       </c>
       <c r="C44" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D44">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="E44" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F44" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="G44">
-        <v>2.27</v>
+        <v>2.04</v>
       </c>
       <c r="H44">
-        <v>3.42</v>
+        <v>2.9</v>
       </c>
       <c r="I44">
-        <v>2.97</v>
+        <v>3.62</v>
       </c>
       <c r="J44">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="K44">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="L44">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="M44">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="N44">
-        <v>1.88</v>
+        <v>2.69</v>
       </c>
       <c r="O44">
-        <v>1.86</v>
+        <v>1.37</v>
       </c>
       <c r="P44">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="Q44">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="R44">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="S44">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="T44">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="U44">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="V44">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="W44">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="X44">
-        <v>1.63</v>
+        <v>0.85</v>
       </c>
       <c r="Y44">
-        <v>1.35</v>
+        <v>1.43</v>
       </c>
       <c r="Z44">
-        <v>1.17</v>
+        <v>1.1</v>
       </c>
       <c r="AA44">
-        <v>2.52</v>
+        <v>2.53</v>
       </c>
       <c r="AB44">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AC44">
-        <v>0</v>
+        <v>8.1</v>
       </c>
       <c r="AD44">
-        <v>0</v>
+        <v>2.86</v>
       </c>
       <c r="AE44">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="AF44">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AG44">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="AH44">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AI44">
-        <v>0</v>
+        <v>2.37</v>
       </c>
     </row>
     <row r="45" spans="1:35">
       <c r="A45" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B45" s="2">
         <v>45178</v>
       </c>
       <c r="C45" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D45">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F45" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="G45">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="H45">
-        <v>2.87</v>
+        <v>3.3</v>
       </c>
       <c r="I45">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="J45">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="K45">
-        <v>6.5</v>
+        <v>0</v>
       </c>
       <c r="L45">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="M45">
-        <v>2.75</v>
+        <v>0</v>
       </c>
       <c r="N45">
-        <v>2.35</v>
+        <v>2</v>
       </c>
       <c r="O45">
-        <v>1.53</v>
+        <v>1.8</v>
       </c>
       <c r="P45">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="Q45">
-        <v>2.62</v>
+        <v>0</v>
       </c>
       <c r="R45">
-        <v>1.98</v>
+        <v>0</v>
       </c>
       <c r="S45">
-        <v>1.79</v>
+        <v>0</v>
       </c>
       <c r="T45">
-        <v>1.41</v>
+        <v>0</v>
       </c>
       <c r="U45">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="V45">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="W45">
-        <v>1.69</v>
+        <v>1.75</v>
       </c>
       <c r="X45">
-        <v>0.92</v>
+        <v>1.63</v>
       </c>
       <c r="Y45">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="Z45">
-        <v>1.46</v>
+        <v>1.17</v>
       </c>
       <c r="AA45">
-        <v>2.71</v>
+        <v>2.52</v>
       </c>
       <c r="AB45">
-        <v>2.12</v>
+        <v>0</v>
       </c>
       <c r="AC45">
-        <v>8.5</v>
+        <v>0</v>
       </c>
       <c r="AD45">
-        <v>1.94</v>
+        <v>0</v>
       </c>
       <c r="AE45">
-        <v>1.27</v>
+        <v>0</v>
       </c>
       <c r="AF45">
-        <v>1.51</v>
+        <v>0</v>
       </c>
       <c r="AG45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH45">
-        <v>2.45</v>
+        <v>0</v>
       </c>
       <c r="AI45">
-        <v>3.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:35">
       <c r="A46" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B46" s="2">
         <v>45178</v>
@@ -5714,105 +5732,105 @@
         <v>62</v>
       </c>
       <c r="D46">
+        <v>4</v>
+      </c>
+      <c r="E46" t="s">
+        <v>113</v>
+      </c>
+      <c r="F46" t="s">
+        <v>166</v>
+      </c>
+      <c r="G46">
+        <v>2.5</v>
+      </c>
+      <c r="H46">
+        <v>2.87</v>
+      </c>
+      <c r="I46">
+        <v>2.7</v>
+      </c>
+      <c r="J46">
+        <v>1.1</v>
+      </c>
+      <c r="K46">
+        <v>6.5</v>
+      </c>
+      <c r="L46">
+        <v>1.4</v>
+      </c>
+      <c r="M46">
+        <v>2.75</v>
+      </c>
+      <c r="N46">
+        <v>2.35</v>
+      </c>
+      <c r="O46">
+        <v>1.53</v>
+      </c>
+      <c r="P46">
+        <v>1.44</v>
+      </c>
+      <c r="Q46">
+        <v>2.62</v>
+      </c>
+      <c r="R46">
+        <v>1.98</v>
+      </c>
+      <c r="S46">
+        <v>1.79</v>
+      </c>
+      <c r="T46">
+        <v>1.41</v>
+      </c>
+      <c r="U46">
+        <v>1.33</v>
+      </c>
+      <c r="V46">
+        <v>1.44</v>
+      </c>
+      <c r="W46">
+        <v>1.69</v>
+      </c>
+      <c r="X46">
+        <v>0.92</v>
+      </c>
+      <c r="Y46">
+        <v>1.25</v>
+      </c>
+      <c r="Z46">
+        <v>1.46</v>
+      </c>
+      <c r="AA46">
+        <v>2.71</v>
+      </c>
+      <c r="AB46">
+        <v>2.12</v>
+      </c>
+      <c r="AC46">
+        <v>8.5</v>
+      </c>
+      <c r="AD46">
+        <v>1.94</v>
+      </c>
+      <c r="AE46">
+        <v>1.27</v>
+      </c>
+      <c r="AF46">
+        <v>1.51</v>
+      </c>
+      <c r="AG46">
         <v>2</v>
       </c>
-      <c r="E46" t="s">
-        <v>111</v>
-      </c>
-      <c r="F46" t="s">
-        <v>162</v>
-      </c>
-      <c r="G46">
-        <v>2.21</v>
-      </c>
-      <c r="H46">
-        <v>2.95</v>
-      </c>
-      <c r="I46">
-        <v>3.35</v>
-      </c>
-      <c r="J46">
-        <v>0</v>
-      </c>
-      <c r="K46">
-        <v>0</v>
-      </c>
-      <c r="L46">
-        <v>0</v>
-      </c>
-      <c r="M46">
-        <v>0</v>
-      </c>
-      <c r="N46">
-        <v>0</v>
-      </c>
-      <c r="O46">
-        <v>0</v>
-      </c>
-      <c r="P46">
-        <v>0</v>
-      </c>
-      <c r="Q46">
-        <v>0</v>
-      </c>
-      <c r="R46">
-        <v>0</v>
-      </c>
-      <c r="S46">
-        <v>0</v>
-      </c>
-      <c r="T46">
-        <v>1.27</v>
-      </c>
-      <c r="U46">
-        <v>1.32</v>
-      </c>
-      <c r="V46">
-        <v>1.52</v>
-      </c>
-      <c r="W46">
-        <v>1.78</v>
-      </c>
-      <c r="X46">
-        <v>0.67</v>
-      </c>
-      <c r="Y46">
-        <v>1.78</v>
-      </c>
-      <c r="Z46">
-        <v>1.1</v>
-      </c>
-      <c r="AA46">
-        <v>2.88</v>
-      </c>
-      <c r="AB46">
-        <v>0</v>
-      </c>
-      <c r="AC46">
-        <v>0</v>
-      </c>
-      <c r="AD46">
-        <v>0</v>
-      </c>
-      <c r="AE46">
-        <v>0</v>
-      </c>
-      <c r="AF46">
-        <v>0</v>
-      </c>
-      <c r="AG46">
-        <v>0</v>
-      </c>
       <c r="AH46">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="AI46">
-        <v>0</v>
+        <v>3.34</v>
       </c>
     </row>
     <row r="47" spans="1:35">
       <c r="A47" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B47" s="2">
         <v>45178</v>
@@ -5824,49 +5842,49 @@
         <v>2</v>
       </c>
       <c r="E47" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F47" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="G47">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="H47">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="I47">
-        <v>4.2</v>
+        <v>4.15</v>
       </c>
       <c r="J47">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="K47">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="L47">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="M47">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="N47">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="O47">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="P47">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="Q47">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="R47">
-        <v>0</v>
+        <v>2.07</v>
       </c>
       <c r="S47">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="T47">
         <v>1.19</v>
@@ -5893,33 +5911,33 @@
         <v>3.37</v>
       </c>
       <c r="AB47">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AC47">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AD47">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="AE47">
         <v>0</v>
       </c>
       <c r="AF47">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AG47">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AH47">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AI47">
-        <v>0</v>
+        <v>2.45</v>
       </c>
     </row>
     <row r="48" spans="1:35">
       <c r="A48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B48" s="2">
         <v>45178</v>
@@ -5931,16 +5949,16 @@
         <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F48" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G48">
-        <v>2.64</v>
+        <v>2.75</v>
       </c>
       <c r="H48">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I48">
         <v>2.25</v>
@@ -5958,10 +5976,10 @@
         <v>0</v>
       </c>
       <c r="N48">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="O48">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="P48">
         <v>0</v>
@@ -6038,19 +6056,19 @@
         <v>0</v>
       </c>
       <c r="E49" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F49" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="G49">
-        <v>1.75</v>
+        <v>1.86</v>
       </c>
       <c r="H49">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="I49">
-        <v>4</v>
+        <v>4.05</v>
       </c>
       <c r="J49">
         <v>1.02</v>
@@ -6065,10 +6083,10 @@
         <v>3.8</v>
       </c>
       <c r="N49">
-        <v>1.7</v>
+        <v>1.81</v>
       </c>
       <c r="O49">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="P49">
         <v>1.33</v>
@@ -6145,19 +6163,19 @@
         <v>0</v>
       </c>
       <c r="E50" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F50" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="G50">
-        <v>2</v>
+        <v>1.51</v>
       </c>
       <c r="H50">
-        <v>3.4</v>
+        <v>4.42</v>
       </c>
       <c r="I50">
-        <v>3.1</v>
+        <v>6.15</v>
       </c>
       <c r="J50">
         <v>1.02</v>
@@ -6172,10 +6190,10 @@
         <v>4.75</v>
       </c>
       <c r="N50">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="O50">
-        <v>2.45</v>
+        <v>2.33</v>
       </c>
       <c r="P50">
         <v>1.29</v>
@@ -6240,7 +6258,7 @@
     </row>
     <row r="51" spans="1:35">
       <c r="A51" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B51" s="2">
         <v>45178</v>
@@ -6252,19 +6270,19 @@
         <v>27</v>
       </c>
       <c r="E51" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F51" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="G51">
-        <v>1.75</v>
+        <v>1.81</v>
       </c>
       <c r="H51">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="I51">
-        <v>4.75</v>
+        <v>4.38</v>
       </c>
       <c r="J51">
         <v>1.13</v>
@@ -6273,16 +6291,16 @@
         <v>6.25</v>
       </c>
       <c r="L51">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="M51">
         <v>2.37</v>
       </c>
       <c r="N51">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="O51">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="P51">
         <v>1.6</v>
@@ -6347,7 +6365,7 @@
     </row>
     <row r="52" spans="1:35">
       <c r="A52" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B52" s="2">
         <v>45178</v>
@@ -6359,19 +6377,19 @@
         <v>27</v>
       </c>
       <c r="E52" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F52" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G52">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="H52">
-        <v>3.1</v>
+        <v>3.18</v>
       </c>
       <c r="I52">
-        <v>4.75</v>
+        <v>4.38</v>
       </c>
       <c r="J52">
         <v>1.09</v>
@@ -6386,10 +6404,10 @@
         <v>2.6</v>
       </c>
       <c r="N52">
-        <v>2.45</v>
+        <v>2.46</v>
       </c>
       <c r="O52">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="P52">
         <v>1.51</v>
@@ -6450,6 +6468,220 @@
       </c>
       <c r="AI52">
         <v>2.2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:35">
+      <c r="A53" t="s">
+        <v>46</v>
+      </c>
+      <c r="B53" s="2">
+        <v>45178</v>
+      </c>
+      <c r="C53" t="s">
+        <v>67</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53" t="s">
+        <v>120</v>
+      </c>
+      <c r="F53" t="s">
+        <v>173</v>
+      </c>
+      <c r="G53">
+        <v>2.02</v>
+      </c>
+      <c r="H53">
+        <v>3.65</v>
+      </c>
+      <c r="I53">
+        <v>3.55</v>
+      </c>
+      <c r="J53">
+        <v>1.02</v>
+      </c>
+      <c r="K53">
+        <v>17</v>
+      </c>
+      <c r="L53">
+        <v>1.18</v>
+      </c>
+      <c r="M53">
+        <v>4.75</v>
+      </c>
+      <c r="N53">
+        <v>1.68</v>
+      </c>
+      <c r="O53">
+        <v>2.07</v>
+      </c>
+      <c r="P53">
+        <v>1.29</v>
+      </c>
+      <c r="Q53">
+        <v>3.5</v>
+      </c>
+      <c r="R53">
+        <v>1.53</v>
+      </c>
+      <c r="S53">
+        <v>2.38</v>
+      </c>
+      <c r="T53">
+        <v>1.28</v>
+      </c>
+      <c r="U53">
+        <v>1.24</v>
+      </c>
+      <c r="V53">
+        <v>1.87</v>
+      </c>
+      <c r="W53">
+        <v>1.33</v>
+      </c>
+      <c r="X53">
+        <v>1.08</v>
+      </c>
+      <c r="Y53">
+        <v>1.69</v>
+      </c>
+      <c r="Z53">
+        <v>1.18</v>
+      </c>
+      <c r="AA53">
+        <v>2.87</v>
+      </c>
+      <c r="AB53">
+        <v>1.64</v>
+      </c>
+      <c r="AC53">
+        <v>7.5</v>
+      </c>
+      <c r="AD53">
+        <v>2.65</v>
+      </c>
+      <c r="AE53">
+        <v>1.26</v>
+      </c>
+      <c r="AF53">
+        <v>1.48</v>
+      </c>
+      <c r="AG53">
+        <v>1.84</v>
+      </c>
+      <c r="AH53">
+        <v>2.32</v>
+      </c>
+      <c r="AI53">
+        <v>3.05</v>
+      </c>
+    </row>
+    <row r="54" spans="1:35">
+      <c r="A54" t="s">
+        <v>46</v>
+      </c>
+      <c r="B54" s="2">
+        <v>45178</v>
+      </c>
+      <c r="C54" t="s">
+        <v>68</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54" t="s">
+        <v>121</v>
+      </c>
+      <c r="F54" t="s">
+        <v>174</v>
+      </c>
+      <c r="G54">
+        <v>2.9</v>
+      </c>
+      <c r="H54">
+        <v>3.65</v>
+      </c>
+      <c r="I54">
+        <v>2.32</v>
+      </c>
+      <c r="J54">
+        <v>1.03</v>
+      </c>
+      <c r="K54">
+        <v>12.5</v>
+      </c>
+      <c r="L54">
+        <v>1.18</v>
+      </c>
+      <c r="M54">
+        <v>4.4</v>
+      </c>
+      <c r="N54">
+        <v>1.68</v>
+      </c>
+      <c r="O54">
+        <v>2.07</v>
+      </c>
+      <c r="P54">
+        <v>1.29</v>
+      </c>
+      <c r="Q54">
+        <v>3.5</v>
+      </c>
+      <c r="R54">
+        <v>1.5</v>
+      </c>
+      <c r="S54">
+        <v>2.5</v>
+      </c>
+      <c r="T54">
+        <v>1.65</v>
+      </c>
+      <c r="U54">
+        <v>1.27</v>
+      </c>
+      <c r="V54">
+        <v>1.3</v>
+      </c>
+      <c r="W54">
+        <v>1.62</v>
+      </c>
+      <c r="X54">
+        <v>1.08</v>
+      </c>
+      <c r="Y54">
+        <v>1.56</v>
+      </c>
+      <c r="Z54">
+        <v>1.5</v>
+      </c>
+      <c r="AA54">
+        <v>3.06</v>
+      </c>
+      <c r="AB54">
+        <v>2.1</v>
+      </c>
+      <c r="AC54">
+        <v>7.5</v>
+      </c>
+      <c r="AD54">
+        <v>1.97</v>
+      </c>
+      <c r="AE54">
+        <v>1.25</v>
+      </c>
+      <c r="AF54">
+        <v>1.49</v>
+      </c>
+      <c r="AG54">
+        <v>1.83</v>
+      </c>
+      <c r="AH54">
+        <v>2.32</v>
+      </c>
+      <c r="AI54">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia/2023-09-09_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-09-09_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="173">
   <si>
     <t>League</t>
   </si>
@@ -145,12 +145,12 @@
     <t>Portugal Liga NOS</t>
   </si>
   <si>
+    <t>Brazil Serie B</t>
+  </si>
+  <si>
     <t>Brazil Serie C</t>
   </si>
   <si>
-    <t>Brazil Serie B</t>
-  </si>
-  <si>
     <t>Paraguay Division Profesional</t>
   </si>
   <si>
@@ -238,84 +238,81 @@
     <t>Shimizu S-Pulse</t>
   </si>
   <si>
+    <t>JEF United</t>
+  </si>
+  <si>
+    <t>Fagiano Okayama</t>
+  </si>
+  <si>
     <t>V-Varen Nagasaki</t>
   </si>
   <si>
     <t>Jubilo Iwata</t>
   </si>
   <si>
-    <t>JEF United</t>
-  </si>
-  <si>
-    <t>Fagiano Okayama</t>
-  </si>
-  <si>
     <t>Bradford City</t>
   </si>
   <si>
+    <t>Barry Town United</t>
+  </si>
+  <si>
+    <t>Aberystwyth Town</t>
+  </si>
+  <si>
     <t>Penybont</t>
   </si>
   <si>
     <t>Haverfordwest County</t>
   </si>
   <si>
-    <t>Aberystwyth Town</t>
-  </si>
-  <si>
-    <t>Barry Town United</t>
+    <t>Milton Keynes Dons</t>
   </si>
   <si>
     <t>Salford City</t>
   </si>
   <si>
+    <t>AFC Wimbledon</t>
+  </si>
+  <si>
+    <t>Accrington Stanley</t>
+  </si>
+  <si>
+    <t>Colchester United</t>
+  </si>
+  <si>
+    <t>Gillingham</t>
+  </si>
+  <si>
+    <t>Forest Green Rovers</t>
+  </si>
+  <si>
+    <t>Crawley Town</t>
+  </si>
+  <si>
+    <t>Exeter City</t>
+  </si>
+  <si>
+    <t>Fleetwood Town</t>
+  </si>
+  <si>
+    <t>Lincoln City</t>
+  </si>
+  <si>
     <t>Swindon Town</t>
   </si>
   <si>
-    <t>Accrington Stanley</t>
-  </si>
-  <si>
-    <t>Colchester United</t>
-  </si>
-  <si>
-    <t>Crawley Town</t>
-  </si>
-  <si>
-    <t>Gillingham</t>
-  </si>
-  <si>
-    <t>Milton Keynes Dons</t>
-  </si>
-  <si>
-    <t>AFC Wimbledon</t>
-  </si>
-  <si>
-    <t>Forest Green Rovers</t>
-  </si>
-  <si>
-    <t>Fleetwood Town</t>
-  </si>
-  <si>
-    <t>Lincoln City</t>
-  </si>
-  <si>
     <t>Reading</t>
   </si>
   <si>
+    <t>Shrewsbury Town</t>
+  </si>
+  <si>
+    <t>Stevenage</t>
+  </si>
+  <si>
     <t>Wrexham</t>
   </si>
   <si>
-    <t>Shrewsbury Town</t>
-  </si>
-  <si>
-    <t>Stevenage</t>
-  </si>
-  <si>
-    <t>Wycombe Wanderers</t>
-  </si>
-  <si>
-    <t>Exeter City</t>
-  </si>
-  <si>
     <t>Burgos CF</t>
   </si>
   <si>
@@ -337,21 +334,21 @@
     <t>Peñarol</t>
   </si>
   <si>
+    <t>Leganés</t>
+  </si>
+  <si>
     <t>NAC Breda</t>
   </si>
   <si>
     <t>CD Tenerife</t>
   </si>
   <si>
-    <t>Leganés</t>
+    <t>Ponte Preta</t>
   </si>
   <si>
     <t>Amazonas</t>
   </si>
   <si>
-    <t>Ponte Preta</t>
-  </si>
-  <si>
     <t>Sportivo Trinidense</t>
   </si>
   <si>
@@ -364,15 +361,15 @@
     <t>General Caballero JLM</t>
   </si>
   <si>
+    <t>Mirassol</t>
+  </si>
+  <si>
+    <t>Inter Miami</t>
+  </si>
+  <si>
     <t>DC United</t>
   </si>
   <si>
-    <t>Inter Miami</t>
-  </si>
-  <si>
-    <t>Mirassol</t>
-  </si>
-  <si>
     <t>Sport Recife</t>
   </si>
   <si>
@@ -397,84 +394,81 @@
     <t>Montedio Yamagata</t>
   </si>
   <si>
+    <t>Blaublitz Akita</t>
+  </si>
+  <si>
+    <t>Vegalta Sendai</t>
+  </si>
+  <si>
     <t>ThespaKusatsu Gunma</t>
   </si>
   <si>
     <t>Omiya Ardija</t>
   </si>
   <si>
-    <t>Blaublitz Akita</t>
-  </si>
-  <si>
-    <t>Vegalta Sendai</t>
-  </si>
-  <si>
     <t>Grimsby Town</t>
   </si>
   <si>
+    <t>Connah's Quay</t>
+  </si>
+  <si>
+    <t>Caernarfon Town</t>
+  </si>
+  <si>
     <t>Colwyn Bay</t>
   </si>
   <si>
     <t>Newtown</t>
   </si>
   <si>
-    <t>Caernarfon Town</t>
-  </si>
-  <si>
-    <t>Connah's Quay</t>
+    <t>Notts County</t>
   </si>
   <si>
     <t>Walsall</t>
   </si>
   <si>
+    <t>Stockport County</t>
+  </si>
+  <si>
+    <t>Mansfield Town</t>
+  </si>
+  <si>
+    <t>Tranmere Rovers</t>
+  </si>
+  <si>
+    <t>Harrogate Town</t>
+  </si>
+  <si>
+    <t>Crewe Alexandra</t>
+  </si>
+  <si>
+    <t>Newport County</t>
+  </si>
+  <si>
+    <t>Leyton Orient</t>
+  </si>
+  <si>
+    <t>Blackpool</t>
+  </si>
+  <si>
+    <t>Oxford United</t>
+  </si>
+  <si>
     <t>Sutton United</t>
   </si>
   <si>
-    <t>Mansfield Town</t>
-  </si>
-  <si>
-    <t>Tranmere Rovers</t>
-  </si>
-  <si>
-    <t>Newport County</t>
-  </si>
-  <si>
-    <t>Harrogate Town</t>
-  </si>
-  <si>
-    <t>Notts County</t>
-  </si>
-  <si>
-    <t>Stockport County</t>
-  </si>
-  <si>
-    <t>Crewe Alexandra</t>
-  </si>
-  <si>
-    <t>Blackpool</t>
-  </si>
-  <si>
-    <t>Oxford United</t>
-  </si>
-  <si>
     <t>Bristol Rovers</t>
   </si>
   <si>
+    <t>Bolton Wanderers</t>
+  </si>
+  <si>
+    <t>Carlisle United</t>
+  </si>
+  <si>
     <t>Doncaster Rovers</t>
   </si>
   <si>
-    <t>Bolton Wanderers</t>
-  </si>
-  <si>
-    <t>Carlisle United</t>
-  </si>
-  <si>
-    <t>Cambridge United</t>
-  </si>
-  <si>
-    <t>Leyton Orient</t>
-  </si>
-  <si>
     <t>SD Eibar</t>
   </si>
   <si>
@@ -496,21 +490,21 @@
     <t>Defensor Sporting</t>
   </si>
   <si>
+    <t>SD Huesca</t>
+  </si>
+  <si>
     <t>Roda JC</t>
   </si>
   <si>
     <t>Albacete Balompié</t>
   </si>
   <si>
-    <t>SD Huesca</t>
+    <t>Sampaio Corrêa</t>
   </si>
   <si>
     <t>Paysandu</t>
   </si>
   <si>
-    <t>Sampaio Corrêa</t>
-  </si>
-  <si>
     <t>Guaraní</t>
   </si>
   <si>
@@ -523,13 +517,13 @@
     <t>Sportivo Ameliano</t>
   </si>
   <si>
+    <t>Botafogo SP</t>
+  </si>
+  <si>
+    <t>Sporting KC</t>
+  </si>
+  <si>
     <t>SJ Earthquakes</t>
-  </si>
-  <si>
-    <t>Sporting KC</t>
-  </si>
-  <si>
-    <t>Botafogo SP</t>
   </si>
   <si>
     <t>Criciúma</t>
@@ -900,7 +894,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI54"/>
+  <dimension ref="A1:AI53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1030,16 +1024,16 @@
         <v>69</v>
       </c>
       <c r="F2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G2">
-        <v>1.91</v>
+        <v>2.02</v>
       </c>
       <c r="H2">
-        <v>3.13</v>
+        <v>3.48</v>
       </c>
       <c r="I2">
-        <v>3.75</v>
+        <v>3.69</v>
       </c>
       <c r="J2">
         <v>1.03</v>
@@ -1054,10 +1048,10 @@
         <v>3.6</v>
       </c>
       <c r="N2">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="O2">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="P2">
         <v>1.39</v>
@@ -1081,10 +1075,10 @@
         <v>1.57</v>
       </c>
       <c r="W2">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="X2">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="Y2">
         <v>1.35</v>
@@ -1137,16 +1131,16 @@
         <v>70</v>
       </c>
       <c r="F3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G3">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="H3">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="I3">
-        <v>5.25</v>
+        <v>5.2</v>
       </c>
       <c r="J3">
         <v>1.05</v>
@@ -1161,7 +1155,7 @@
         <v>3</v>
       </c>
       <c r="N3">
-        <v>2.01</v>
+        <v>2.02</v>
       </c>
       <c r="O3">
         <v>1.75</v>
@@ -1188,10 +1182,10 @@
         <v>2.01</v>
       </c>
       <c r="W3">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="X3">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="Y3">
         <v>1.36</v>
@@ -1244,16 +1238,16 @@
         <v>71</v>
       </c>
       <c r="F4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G4">
-        <v>1.51</v>
+        <v>1.58</v>
       </c>
       <c r="H4">
-        <v>3.93</v>
+        <v>4.2</v>
       </c>
       <c r="I4">
-        <v>5.2</v>
+        <v>5.45</v>
       </c>
       <c r="J4">
         <v>1.07</v>
@@ -1268,10 +1262,10 @@
         <v>2.8</v>
       </c>
       <c r="N4">
-        <v>2.24</v>
+        <v>2.35</v>
       </c>
       <c r="O4">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="P4">
         <v>1.48</v>
@@ -1295,10 +1289,10 @@
         <v>2.05</v>
       </c>
       <c r="W4">
-        <v>2.29</v>
+        <v>2.17</v>
       </c>
       <c r="X4">
-        <v>0.63</v>
+        <v>0.76</v>
       </c>
       <c r="Y4">
         <v>1.56</v>
@@ -1351,16 +1345,16 @@
         <v>72</v>
       </c>
       <c r="F5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G5">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="H5">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="I5">
-        <v>3</v>
+        <v>3.09</v>
       </c>
       <c r="J5">
         <v>1.04</v>
@@ -1375,10 +1369,10 @@
         <v>3.3</v>
       </c>
       <c r="N5">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="O5">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="P5">
         <v>1.38</v>
@@ -1402,10 +1396,10 @@
         <v>1.52</v>
       </c>
       <c r="W5">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="X5">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="Y5">
         <v>1.37</v>
@@ -1452,22 +1446,22 @@
         <v>47</v>
       </c>
       <c r="D6">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E6" t="s">
         <v>73</v>
       </c>
       <c r="F6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G6">
-        <v>1.58</v>
+        <v>1.65</v>
       </c>
       <c r="H6">
-        <v>3.62</v>
+        <v>3.98</v>
       </c>
       <c r="I6">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="J6">
         <v>1.01</v>
@@ -1482,10 +1476,10 @@
         <v>4.75</v>
       </c>
       <c r="N6">
-        <v>1.81</v>
+        <v>1.5</v>
       </c>
       <c r="O6">
-        <v>2.05</v>
+        <v>2.4</v>
       </c>
       <c r="P6">
         <v>1.35</v>
@@ -1509,10 +1503,10 @@
         <v>2.63</v>
       </c>
       <c r="W6">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="X6">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="Y6">
         <v>1.91</v>
@@ -1565,94 +1559,94 @@
         <v>74</v>
       </c>
       <c r="F7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G7">
-        <v>1.86</v>
+        <v>1.74</v>
       </c>
       <c r="H7">
-        <v>3.28</v>
+        <v>3.7</v>
       </c>
       <c r="I7">
-        <v>3.75</v>
+        <v>4.77</v>
       </c>
       <c r="J7">
-        <v>1.03</v>
+        <v>1.08</v>
       </c>
       <c r="K7">
-        <v>9</v>
+        <v>6.5</v>
       </c>
       <c r="L7">
-        <v>1.29</v>
+        <v>1.45</v>
       </c>
       <c r="M7">
-        <v>3.3</v>
+        <v>2.6</v>
       </c>
       <c r="N7">
-        <v>1.87</v>
+        <v>2.43</v>
       </c>
       <c r="O7">
-        <v>1.87</v>
+        <v>1.52</v>
       </c>
       <c r="P7">
-        <v>1.39</v>
+        <v>1.53</v>
       </c>
       <c r="Q7">
-        <v>2.8</v>
+        <v>2.37</v>
       </c>
       <c r="R7">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="S7">
-        <v>1.92</v>
+        <v>1.68</v>
       </c>
       <c r="T7">
         <v>1.18</v>
       </c>
       <c r="U7">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="V7">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="W7">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="X7">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="Y7">
-        <v>1.38</v>
+        <v>1.68</v>
       </c>
       <c r="Z7">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AA7">
-        <v>2.55</v>
+        <v>2.94</v>
       </c>
       <c r="AB7">
-        <v>1.85</v>
+        <v>1.69</v>
       </c>
       <c r="AC7">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="AD7">
-        <v>2.35</v>
+        <v>2.63</v>
       </c>
       <c r="AE7">
-        <v>1.27</v>
+        <v>1.31</v>
       </c>
       <c r="AF7">
-        <v>1.43</v>
+        <v>1.62</v>
       </c>
       <c r="AG7">
-        <v>1.8</v>
+        <v>2.08</v>
       </c>
       <c r="AH7">
-        <v>2.32</v>
+        <v>2.72</v>
       </c>
       <c r="AI7">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="8" spans="1:35">
@@ -1666,100 +1660,100 @@
         <v>48</v>
       </c>
       <c r="D8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E8" t="s">
         <v>75</v>
       </c>
       <c r="F8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G8">
-        <v>1.58</v>
+        <v>2.13</v>
       </c>
       <c r="H8">
-        <v>3.62</v>
+        <v>3.44</v>
       </c>
       <c r="I8">
-        <v>5</v>
+        <v>3.42</v>
       </c>
       <c r="J8">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="K8">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="L8">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="M8">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="N8">
-        <v>1.67</v>
+        <v>1.79</v>
       </c>
       <c r="O8">
-        <v>2.13</v>
+        <v>1.96</v>
       </c>
       <c r="P8">
-        <v>1.3</v>
+        <v>1.39</v>
       </c>
       <c r="Q8">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="R8">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="S8">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="T8">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="U8">
+        <v>1.25</v>
+      </c>
+      <c r="V8">
+        <v>1.7</v>
+      </c>
+      <c r="W8">
+        <v>1.59</v>
+      </c>
+      <c r="X8">
         <v>1.18</v>
       </c>
-      <c r="V8">
-        <v>2.05</v>
-      </c>
-      <c r="W8">
-        <v>1.69</v>
-      </c>
-      <c r="X8">
-        <v>0.38</v>
-      </c>
       <c r="Y8">
-        <v>1.81</v>
+        <v>1.49</v>
       </c>
       <c r="Z8">
         <v>1.3</v>
       </c>
       <c r="AA8">
-        <v>3.11</v>
+        <v>2.79</v>
       </c>
       <c r="AB8">
-        <v>1.35</v>
+        <v>1.9</v>
       </c>
       <c r="AC8">
-        <v>8.699999999999999</v>
+        <v>7.7</v>
       </c>
       <c r="AD8">
-        <v>4.26</v>
+        <v>2.26</v>
       </c>
       <c r="AE8">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="AF8">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AG8">
-        <v>1.98</v>
+        <v>2.1</v>
       </c>
       <c r="AH8">
-        <v>2.47</v>
+        <v>2.8</v>
       </c>
       <c r="AI8">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="9" spans="1:35">
@@ -1779,94 +1773,94 @@
         <v>76</v>
       </c>
       <c r="F9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G9">
-        <v>1.65</v>
+        <v>1.94</v>
       </c>
       <c r="H9">
-        <v>3.4</v>
+        <v>3.64</v>
       </c>
       <c r="I9">
-        <v>4.77</v>
+        <v>3.79</v>
       </c>
       <c r="J9">
-        <v>1.08</v>
+        <v>1.03</v>
       </c>
       <c r="K9">
-        <v>6.5</v>
+        <v>9</v>
       </c>
       <c r="L9">
-        <v>1.45</v>
+        <v>1.29</v>
       </c>
       <c r="M9">
-        <v>2.6</v>
+        <v>3.3</v>
       </c>
       <c r="N9">
-        <v>2.38</v>
+        <v>1.88</v>
       </c>
       <c r="O9">
-        <v>1.54</v>
+        <v>1.86</v>
       </c>
       <c r="P9">
-        <v>1.53</v>
+        <v>1.39</v>
       </c>
       <c r="Q9">
-        <v>2.37</v>
+        <v>2.8</v>
       </c>
       <c r="R9">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="S9">
-        <v>1.68</v>
+        <v>1.92</v>
       </c>
       <c r="T9">
         <v>1.18</v>
       </c>
       <c r="U9">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="V9">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="W9">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="X9">
+        <v>1.25</v>
+      </c>
+      <c r="Y9">
         <v>1.38</v>
       </c>
-      <c r="Y9">
-        <v>1.68</v>
-      </c>
       <c r="Z9">
-        <v>1.26</v>
+        <v>1.17</v>
       </c>
       <c r="AA9">
-        <v>2.94</v>
+        <v>2.55</v>
       </c>
       <c r="AB9">
-        <v>1.69</v>
+        <v>1.85</v>
       </c>
       <c r="AC9">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="AD9">
-        <v>2.63</v>
+        <v>2.35</v>
       </c>
       <c r="AE9">
-        <v>1.31</v>
+        <v>1.27</v>
       </c>
       <c r="AF9">
-        <v>1.62</v>
+        <v>1.43</v>
       </c>
       <c r="AG9">
-        <v>2.08</v>
+        <v>1.8</v>
       </c>
       <c r="AH9">
-        <v>2.72</v>
+        <v>2.32</v>
       </c>
       <c r="AI9">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="10" spans="1:35">
@@ -1886,94 +1880,94 @@
         <v>77</v>
       </c>
       <c r="F10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G10">
-        <v>2.04</v>
+        <v>1.65</v>
       </c>
       <c r="H10">
-        <v>3.1</v>
+        <v>3.98</v>
       </c>
       <c r="I10">
-        <v>3.37</v>
+        <v>5.1</v>
       </c>
       <c r="J10">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="K10">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="L10">
+        <v>1.2</v>
+      </c>
+      <c r="M10">
+        <v>4</v>
+      </c>
+      <c r="N10">
+        <v>1.65</v>
+      </c>
+      <c r="O10">
+        <v>2.17</v>
+      </c>
+      <c r="P10">
         <v>1.3</v>
       </c>
-      <c r="M10">
-        <v>3.3</v>
-      </c>
-      <c r="N10">
-        <v>1.78</v>
-      </c>
-      <c r="O10">
-        <v>1.97</v>
-      </c>
-      <c r="P10">
-        <v>1.39</v>
-      </c>
       <c r="Q10">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="R10">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="S10">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="T10">
-        <v>1.25</v>
+        <v>1.13</v>
       </c>
       <c r="U10">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="V10">
-        <v>1.7</v>
+        <v>2.05</v>
       </c>
       <c r="W10">
-        <v>1.5</v>
+        <v>1.76</v>
       </c>
       <c r="X10">
-        <v>1.25</v>
+        <v>0.35</v>
       </c>
       <c r="Y10">
-        <v>1.49</v>
+        <v>1.81</v>
       </c>
       <c r="Z10">
         <v>1.3</v>
       </c>
       <c r="AA10">
-        <v>2.79</v>
+        <v>3.11</v>
       </c>
       <c r="AB10">
-        <v>1.9</v>
+        <v>1.35</v>
       </c>
       <c r="AC10">
-        <v>7.7</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AD10">
-        <v>2.26</v>
+        <v>4.26</v>
       </c>
       <c r="AE10">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="AF10">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AG10">
-        <v>2.1</v>
+        <v>1.98</v>
       </c>
       <c r="AH10">
-        <v>2.8</v>
+        <v>2.47</v>
       </c>
       <c r="AI10">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="11" spans="1:35">
@@ -1993,16 +1987,16 @@
         <v>78</v>
       </c>
       <c r="F11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G11">
-        <v>1.97</v>
+        <v>2.01</v>
       </c>
       <c r="H11">
-        <v>3.3</v>
+        <v>3.48</v>
       </c>
       <c r="I11">
-        <v>3.55</v>
+        <v>3.72</v>
       </c>
       <c r="J11">
         <v>1.05</v>
@@ -2017,10 +2011,10 @@
         <v>3.4</v>
       </c>
       <c r="N11">
-        <v>1.96</v>
+        <v>1.93</v>
       </c>
       <c r="O11">
-        <v>1.82</v>
+        <v>1.79</v>
       </c>
       <c r="P11">
         <v>1.4</v>
@@ -2044,10 +2038,10 @@
         <v>1.78</v>
       </c>
       <c r="W11">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="X11">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="Y11">
         <v>1.45</v>
@@ -2100,94 +2094,94 @@
         <v>79</v>
       </c>
       <c r="F12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G12">
-        <v>1.4</v>
+        <v>4.46</v>
       </c>
       <c r="H12">
-        <v>4.33</v>
+        <v>4.05</v>
       </c>
       <c r="I12">
-        <v>6.5</v>
+        <v>1.67</v>
       </c>
       <c r="J12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="K12">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="L12">
-        <v>1.25</v>
+        <v>1.16</v>
       </c>
       <c r="M12">
-        <v>3.75</v>
+        <v>4.3</v>
       </c>
       <c r="N12">
-        <v>1.85</v>
+        <v>1.67</v>
       </c>
       <c r="O12">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="P12">
+        <v>1.29</v>
+      </c>
+      <c r="Q12">
+        <v>3.4</v>
+      </c>
+      <c r="R12">
+        <v>1.6</v>
+      </c>
+      <c r="S12">
+        <v>2.27</v>
+      </c>
+      <c r="T12">
+        <v>2.14</v>
+      </c>
+      <c r="U12">
+        <v>1.21</v>
+      </c>
+      <c r="V12">
+        <v>1.17</v>
+      </c>
+      <c r="W12">
+        <v>0.67</v>
+      </c>
+      <c r="X12">
+        <v>1.5</v>
+      </c>
+      <c r="Y12">
+        <v>1.62</v>
+      </c>
+      <c r="Z12">
+        <v>1.36</v>
+      </c>
+      <c r="AA12">
+        <v>2.98</v>
+      </c>
+      <c r="AB12">
+        <v>4</v>
+      </c>
+      <c r="AC12">
+        <v>8</v>
+      </c>
+      <c r="AD12">
+        <v>1.38</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12">
         <v>1.33</v>
       </c>
-      <c r="Q12">
-        <v>3.25</v>
-      </c>
-      <c r="R12">
-        <v>1.91</v>
-      </c>
-      <c r="S12">
-        <v>1.8</v>
-      </c>
-      <c r="T12">
-        <v>1.07</v>
-      </c>
-      <c r="U12">
-        <v>1.13</v>
-      </c>
-      <c r="V12">
-        <v>2.75</v>
-      </c>
-      <c r="W12">
-        <v>2</v>
-      </c>
-      <c r="X12">
-        <v>0.5</v>
-      </c>
-      <c r="Y12">
-        <v>1.47</v>
-      </c>
-      <c r="Z12">
-        <v>1.25</v>
-      </c>
-      <c r="AA12">
-        <v>2.72</v>
-      </c>
-      <c r="AB12">
-        <v>0</v>
-      </c>
-      <c r="AC12">
-        <v>0</v>
-      </c>
-      <c r="AD12">
-        <v>0</v>
-      </c>
-      <c r="AE12">
-        <v>0</v>
-      </c>
-      <c r="AF12">
-        <v>0</v>
-      </c>
       <c r="AG12">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="AH12">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="AI12">
-        <v>0</v>
+        <v>2.41</v>
       </c>
     </row>
     <row r="13" spans="1:35">
@@ -2207,70 +2201,70 @@
         <v>80</v>
       </c>
       <c r="F13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G13">
-        <v>2.3</v>
+        <v>3.23</v>
       </c>
       <c r="H13">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="I13">
-        <v>2.7</v>
+        <v>2.09</v>
       </c>
       <c r="J13">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="K13">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="L13">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="M13">
-        <v>3.64</v>
+        <v>3.74</v>
       </c>
       <c r="N13">
-        <v>1.85</v>
+        <v>1.73</v>
       </c>
       <c r="O13">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="P13">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="Q13">
-        <v>3.04</v>
+        <v>3.13</v>
       </c>
       <c r="R13">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="S13">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="T13">
-        <v>1.41</v>
+        <v>1.7</v>
       </c>
       <c r="U13">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="V13">
-        <v>1.53</v>
+        <v>1.31</v>
       </c>
       <c r="W13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X13">
-        <v>0</v>
+        <v>2.33</v>
       </c>
       <c r="Y13">
-        <v>1.74</v>
+        <v>0.92</v>
       </c>
       <c r="Z13">
-        <v>1.31</v>
+        <v>1.73</v>
       </c>
       <c r="AA13">
-        <v>3.05</v>
+        <v>2.65</v>
       </c>
       <c r="AB13">
         <v>0</v>
@@ -2314,94 +2308,94 @@
         <v>81</v>
       </c>
       <c r="F14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G14">
-        <v>3.25</v>
+        <v>1.44</v>
       </c>
       <c r="H14">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="I14">
+        <v>6.5</v>
+      </c>
+      <c r="J14">
+        <v>1.05</v>
+      </c>
+      <c r="K14">
+        <v>9</v>
+      </c>
+      <c r="L14">
+        <v>1.25</v>
+      </c>
+      <c r="M14">
+        <v>3.75</v>
+      </c>
+      <c r="N14">
+        <v>1.73</v>
+      </c>
+      <c r="O14">
         <v>2</v>
-      </c>
-      <c r="J14">
-        <v>1</v>
-      </c>
-      <c r="K14">
-        <v>10.5</v>
-      </c>
-      <c r="L14">
-        <v>1.21</v>
-      </c>
-      <c r="M14">
-        <v>3.74</v>
-      </c>
-      <c r="N14">
-        <v>1.85</v>
-      </c>
-      <c r="O14">
-        <v>1.95</v>
       </c>
       <c r="P14">
         <v>1.33</v>
       </c>
       <c r="Q14">
-        <v>3.13</v>
+        <v>3.25</v>
       </c>
       <c r="R14">
+        <v>1.91</v>
+      </c>
+      <c r="S14">
+        <v>1.8</v>
+      </c>
+      <c r="T14">
+        <v>1.07</v>
+      </c>
+      <c r="U14">
+        <v>1.13</v>
+      </c>
+      <c r="V14">
+        <v>2.75</v>
+      </c>
+      <c r="W14">
+        <v>1.33</v>
+      </c>
+      <c r="X14">
+        <v>1.33</v>
+      </c>
+      <c r="Y14">
+        <v>1.47</v>
+      </c>
+      <c r="Z14">
+        <v>1.25</v>
+      </c>
+      <c r="AA14">
+        <v>2.72</v>
+      </c>
+      <c r="AB14">
+        <v>1.25</v>
+      </c>
+      <c r="AC14">
+        <v>9</v>
+      </c>
+      <c r="AD14">
+        <v>5.25</v>
+      </c>
+      <c r="AE14">
+        <v>1.33</v>
+      </c>
+      <c r="AF14">
         <v>1.6</v>
       </c>
-      <c r="S14">
-        <v>2.27</v>
-      </c>
-      <c r="T14">
-        <v>1.7</v>
-      </c>
-      <c r="U14">
-        <v>1.27</v>
-      </c>
-      <c r="V14">
-        <v>1.31</v>
-      </c>
-      <c r="W14">
-        <v>0</v>
-      </c>
-      <c r="X14">
+      <c r="AG14">
         <v>2</v>
       </c>
-      <c r="Y14">
-        <v>0.92</v>
-      </c>
-      <c r="Z14">
-        <v>1.73</v>
-      </c>
-      <c r="AA14">
-        <v>2.65</v>
-      </c>
-      <c r="AB14">
-        <v>0</v>
-      </c>
-      <c r="AC14">
-        <v>0</v>
-      </c>
-      <c r="AD14">
-        <v>0</v>
-      </c>
-      <c r="AE14">
-        <v>0</v>
-      </c>
-      <c r="AF14">
-        <v>0</v>
-      </c>
-      <c r="AG14">
-        <v>0</v>
-      </c>
       <c r="AH14">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AI14">
-        <v>0</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="15" spans="1:35">
@@ -2421,70 +2415,70 @@
         <v>82</v>
       </c>
       <c r="F15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G15">
-        <v>4.5</v>
+        <v>2.25</v>
       </c>
       <c r="H15">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="I15">
-        <v>1.62</v>
+        <v>2.75</v>
       </c>
       <c r="J15">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="K15">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="L15">
-        <v>1.16</v>
+        <v>1.22</v>
       </c>
       <c r="M15">
-        <v>4.3</v>
+        <v>3.64</v>
       </c>
       <c r="N15">
+        <v>1.73</v>
+      </c>
+      <c r="O15">
+        <v>2</v>
+      </c>
+      <c r="P15">
+        <v>1.35</v>
+      </c>
+      <c r="Q15">
+        <v>3.04</v>
+      </c>
+      <c r="R15">
         <v>1.61</v>
       </c>
-      <c r="O15">
-        <v>2.05</v>
-      </c>
-      <c r="P15">
-        <v>1.29</v>
-      </c>
-      <c r="Q15">
-        <v>3.4</v>
-      </c>
-      <c r="R15">
-        <v>1.6</v>
-      </c>
       <c r="S15">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="T15">
-        <v>2.14</v>
+        <v>1.41</v>
       </c>
       <c r="U15">
-        <v>1.21</v>
+        <v>1.28</v>
       </c>
       <c r="V15">
-        <v>1.17</v>
+        <v>1.53</v>
       </c>
       <c r="W15">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="X15">
         <v>1</v>
       </c>
       <c r="Y15">
-        <v>1.62</v>
+        <v>1.74</v>
       </c>
       <c r="Z15">
-        <v>1.36</v>
+        <v>1.31</v>
       </c>
       <c r="AA15">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="AB15">
         <v>0</v>
@@ -2528,94 +2522,94 @@
         <v>83</v>
       </c>
       <c r="F16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G16">
-        <v>2.05</v>
+        <v>2.35</v>
       </c>
       <c r="H16">
-        <v>3.35</v>
+        <v>3.62</v>
       </c>
       <c r="I16">
-        <v>3.3</v>
+        <v>2.84</v>
       </c>
       <c r="J16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="K16">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="L16">
-        <v>1.32</v>
+        <v>1.2</v>
       </c>
       <c r="M16">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="N16">
-        <v>1.91</v>
+        <v>1.63</v>
       </c>
       <c r="O16">
-        <v>1.89</v>
+        <v>2.16</v>
       </c>
       <c r="P16">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="Q16">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="R16">
-        <v>1.73</v>
+        <v>1.53</v>
       </c>
       <c r="S16">
-        <v>2</v>
+        <v>2.38</v>
       </c>
       <c r="T16">
-        <v>1.33</v>
+        <v>1.58</v>
       </c>
       <c r="U16">
+        <v>1.22</v>
+      </c>
+      <c r="V16">
+        <v>1.52</v>
+      </c>
+      <c r="W16">
+        <v>2.33</v>
+      </c>
+      <c r="X16">
         <v>1.25</v>
       </c>
-      <c r="V16">
-        <v>1.75</v>
-      </c>
-      <c r="W16">
-        <v>0.5</v>
-      </c>
-      <c r="X16">
-        <v>0.33</v>
-      </c>
       <c r="Y16">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
       <c r="Z16">
-        <v>1.54</v>
+        <v>1.1</v>
       </c>
       <c r="AA16">
-        <v>2.7</v>
+        <v>2.24</v>
       </c>
       <c r="AB16">
-        <v>1.67</v>
+        <v>2.44</v>
       </c>
       <c r="AC16">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AD16">
-        <v>2.8</v>
+        <v>1.77</v>
       </c>
       <c r="AE16">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AF16">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AG16">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AH16">
-        <v>2.45</v>
+        <v>2.35</v>
       </c>
       <c r="AI16">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="17" spans="1:35">
@@ -2635,94 +2629,94 @@
         <v>84</v>
       </c>
       <c r="F17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G17">
-        <v>1.95</v>
+        <v>2.04</v>
       </c>
       <c r="H17">
+        <v>3.56</v>
+      </c>
+      <c r="I17">
+        <v>3.53</v>
+      </c>
+      <c r="J17">
+        <v>1.05</v>
+      </c>
+      <c r="K17">
+        <v>12</v>
+      </c>
+      <c r="L17">
+        <v>1.32</v>
+      </c>
+      <c r="M17">
         <v>3.4</v>
       </c>
-      <c r="I17">
-        <v>3.65</v>
-      </c>
-      <c r="J17">
-        <v>1.04</v>
-      </c>
-      <c r="K17">
-        <v>13</v>
-      </c>
-      <c r="L17">
-        <v>1.26</v>
-      </c>
-      <c r="M17">
-        <v>4</v>
-      </c>
       <c r="N17">
+        <v>1.86</v>
+      </c>
+      <c r="O17">
+        <v>1.86</v>
+      </c>
+      <c r="P17">
+        <v>1.4</v>
+      </c>
+      <c r="Q17">
+        <v>2.75</v>
+      </c>
+      <c r="R17">
+        <v>1.73</v>
+      </c>
+      <c r="S17">
+        <v>2</v>
+      </c>
+      <c r="T17">
+        <v>1.33</v>
+      </c>
+      <c r="U17">
+        <v>1.25</v>
+      </c>
+      <c r="V17">
         <v>1.75</v>
       </c>
-      <c r="O17">
-        <v>1.95</v>
-      </c>
-      <c r="P17">
-        <v>1.36</v>
-      </c>
-      <c r="Q17">
-        <v>3</v>
-      </c>
-      <c r="R17">
+      <c r="W17">
+        <v>0.33</v>
+      </c>
+      <c r="X17">
+        <v>1</v>
+      </c>
+      <c r="Y17">
+        <v>1.16</v>
+      </c>
+      <c r="Z17">
+        <v>1.54</v>
+      </c>
+      <c r="AA17">
+        <v>2.7</v>
+      </c>
+      <c r="AB17">
         <v>1.67</v>
       </c>
-      <c r="S17">
-        <v>2.1</v>
-      </c>
-      <c r="T17">
-        <v>1.26</v>
-      </c>
-      <c r="U17">
-        <v>1.24</v>
-      </c>
-      <c r="V17">
-        <v>1.92</v>
-      </c>
-      <c r="W17">
-        <v>2</v>
-      </c>
-      <c r="X17">
-        <v>0</v>
-      </c>
-      <c r="Y17">
-        <v>1.97</v>
-      </c>
-      <c r="Z17">
-        <v>1.33</v>
-      </c>
-      <c r="AA17">
-        <v>3.3</v>
-      </c>
-      <c r="AB17">
-        <v>1.55</v>
-      </c>
       <c r="AC17">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AD17">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="AE17">
         <v>1.25</v>
       </c>
       <c r="AF17">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="AG17">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AH17">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AI17">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="18" spans="1:35">
@@ -2742,58 +2736,58 @@
         <v>85</v>
       </c>
       <c r="F18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G18">
-        <v>3.3</v>
+        <v>2.78</v>
       </c>
       <c r="H18">
-        <v>3.3</v>
+        <v>3.32</v>
       </c>
       <c r="I18">
-        <v>2.05</v>
+        <v>2.52</v>
       </c>
       <c r="J18">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="K18">
-        <v>12</v>
+        <v>9.5</v>
       </c>
       <c r="L18">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="M18">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="N18">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="O18">
-        <v>1.89</v>
+        <v>1.67</v>
       </c>
       <c r="P18">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="Q18">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="R18">
-        <v>1.67</v>
+        <v>1.83</v>
       </c>
       <c r="S18">
-        <v>2.1</v>
+        <v>1.83</v>
       </c>
       <c r="T18">
-        <v>1.66</v>
+        <v>1.53</v>
       </c>
       <c r="U18">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="V18">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="W18">
-        <v>2.33</v>
+        <v>0.67</v>
       </c>
       <c r="X18">
         <v>1</v>
@@ -2802,34 +2796,34 @@
         <v>1.61</v>
       </c>
       <c r="Z18">
-        <v>1.99</v>
+        <v>1.4</v>
       </c>
       <c r="AA18">
-        <v>3.6</v>
+        <v>3.01</v>
       </c>
       <c r="AB18">
-        <v>2.8</v>
+        <v>2.25</v>
       </c>
       <c r="AC18">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AD18">
-        <v>1.59</v>
+        <v>1.95</v>
       </c>
       <c r="AE18">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AF18">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="AG18">
-        <v>1.82</v>
+        <v>1.98</v>
       </c>
       <c r="AH18">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="AI18">
-        <v>3.3</v>
+        <v>2.98</v>
       </c>
     </row>
     <row r="19" spans="1:35">
@@ -2849,94 +2843,94 @@
         <v>86</v>
       </c>
       <c r="F19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G19">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="H19">
-        <v>3.1</v>
+        <v>3.45</v>
       </c>
       <c r="I19">
-        <v>3.15</v>
+        <v>2.89</v>
       </c>
       <c r="J19">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K19">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L19">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M19">
+        <v>3.6</v>
+      </c>
+      <c r="N19">
+        <v>1.82</v>
+      </c>
+      <c r="O19">
+        <v>1.91</v>
+      </c>
+      <c r="P19">
+        <v>1.36</v>
+      </c>
+      <c r="Q19">
+        <v>3</v>
+      </c>
+      <c r="R19">
+        <v>1.67</v>
+      </c>
+      <c r="S19">
+        <v>2.1</v>
+      </c>
+      <c r="T19">
+        <v>1.66</v>
+      </c>
+      <c r="U19">
+        <v>1.26</v>
+      </c>
+      <c r="V19">
+        <v>1.38</v>
+      </c>
+      <c r="W19">
+        <v>1.75</v>
+      </c>
+      <c r="X19">
+        <v>1.5</v>
+      </c>
+      <c r="Y19">
+        <v>1.61</v>
+      </c>
+      <c r="Z19">
+        <v>1.99</v>
+      </c>
+      <c r="AA19">
+        <v>3.6</v>
+      </c>
+      <c r="AB19">
+        <v>2.8</v>
+      </c>
+      <c r="AC19">
+        <v>8</v>
+      </c>
+      <c r="AD19">
+        <v>1.59</v>
+      </c>
+      <c r="AE19">
+        <v>1.24</v>
+      </c>
+      <c r="AF19">
+        <v>1.46</v>
+      </c>
+      <c r="AG19">
+        <v>1.82</v>
+      </c>
+      <c r="AH19">
+        <v>2.4</v>
+      </c>
+      <c r="AI19">
         <v>3.3</v>
-      </c>
-      <c r="N19">
-        <v>2.05</v>
-      </c>
-      <c r="O19">
-        <v>1.7</v>
-      </c>
-      <c r="P19">
-        <v>1.44</v>
-      </c>
-      <c r="Q19">
-        <v>2.63</v>
-      </c>
-      <c r="R19">
-        <v>1.8</v>
-      </c>
-      <c r="S19">
-        <v>1.91</v>
-      </c>
-      <c r="T19">
-        <v>1.38</v>
-      </c>
-      <c r="U19">
-        <v>1.28</v>
-      </c>
-      <c r="V19">
-        <v>1.63</v>
-      </c>
-      <c r="W19">
-        <v>0</v>
-      </c>
-      <c r="X19">
-        <v>0</v>
-      </c>
-      <c r="Y19">
-        <v>1.22</v>
-      </c>
-      <c r="Z19">
-        <v>1.28</v>
-      </c>
-      <c r="AA19">
-        <v>2.5</v>
-      </c>
-      <c r="AB19">
-        <v>1.7</v>
-      </c>
-      <c r="AC19">
-        <v>7</v>
-      </c>
-      <c r="AD19">
-        <v>2.7</v>
-      </c>
-      <c r="AE19">
-        <v>0</v>
-      </c>
-      <c r="AF19">
-        <v>1.3</v>
-      </c>
-      <c r="AG19">
-        <v>1.55</v>
-      </c>
-      <c r="AH19">
-        <v>1.93</v>
-      </c>
-      <c r="AI19">
-        <v>2.55</v>
       </c>
     </row>
     <row r="20" spans="1:35">
@@ -2956,94 +2950,94 @@
         <v>87</v>
       </c>
       <c r="F20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G20">
-        <v>2.9</v>
+        <v>2.47</v>
       </c>
       <c r="H20">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="I20">
-        <v>2.3</v>
+        <v>2.86</v>
       </c>
       <c r="J20">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="K20">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L20">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="M20">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="N20">
-        <v>1.84</v>
+        <v>2.07</v>
       </c>
       <c r="O20">
-        <v>1.96</v>
+        <v>1.68</v>
       </c>
       <c r="P20">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Q20">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="R20">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="S20">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="T20">
-        <v>1.65</v>
+        <v>1.38</v>
       </c>
       <c r="U20">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="V20">
-        <v>1.4</v>
+        <v>1.63</v>
       </c>
       <c r="W20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y20">
-        <v>1.6</v>
+        <v>1.22</v>
       </c>
       <c r="Z20">
-        <v>1.61</v>
+        <v>1.28</v>
       </c>
       <c r="AA20">
-        <v>3.21</v>
+        <v>2.5</v>
       </c>
       <c r="AB20">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="AC20">
         <v>7</v>
       </c>
       <c r="AD20">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="AE20">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="AF20">
-        <v>1.47</v>
+        <v>1.3</v>
       </c>
       <c r="AG20">
-        <v>2</v>
+        <v>1.55</v>
       </c>
       <c r="AH20">
-        <v>2.45</v>
+        <v>1.93</v>
       </c>
       <c r="AI20">
-        <v>3.4</v>
+        <v>2.55</v>
       </c>
     </row>
     <row r="21" spans="1:35">
@@ -3063,16 +3057,16 @@
         <v>88</v>
       </c>
       <c r="F21" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G21">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="H21">
-        <v>3.3</v>
+        <v>3.52</v>
       </c>
       <c r="I21">
-        <v>4.3</v>
+        <v>4.54</v>
       </c>
       <c r="J21">
         <v>1.07</v>
@@ -3087,10 +3081,10 @@
         <v>2.95</v>
       </c>
       <c r="N21">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="O21">
-        <v>1.61</v>
+        <v>1.65</v>
       </c>
       <c r="P21">
         <v>1.44</v>
@@ -3114,10 +3108,10 @@
         <v>2.15</v>
       </c>
       <c r="W21">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="X21">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="Y21">
         <v>1.56</v>
@@ -3170,94 +3164,94 @@
         <v>89</v>
       </c>
       <c r="F22" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G22">
-        <v>2.8</v>
+        <v>2.41</v>
       </c>
       <c r="H22">
-        <v>3.4</v>
+        <v>3.42</v>
       </c>
       <c r="I22">
-        <v>2.25</v>
+        <v>2.88</v>
       </c>
       <c r="J22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="K22">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="L22">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="M22">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="N22">
-        <v>1.67</v>
+        <v>1.81</v>
       </c>
       <c r="O22">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="P22">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="Q22">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="R22">
-        <v>1.53</v>
+        <v>1.73</v>
       </c>
       <c r="S22">
-        <v>2.38</v>
+        <v>2</v>
       </c>
       <c r="T22">
-        <v>1.58</v>
+        <v>1.3</v>
       </c>
       <c r="U22">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="V22">
-        <v>1.52</v>
+        <v>1.83</v>
       </c>
       <c r="W22">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X22">
         <v>1.33</v>
       </c>
       <c r="Y22">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="Z22">
-        <v>1.1</v>
+        <v>1.35</v>
       </c>
       <c r="AA22">
-        <v>2.24</v>
+        <v>2.62</v>
       </c>
       <c r="AB22">
-        <v>2.44</v>
+        <v>1.76</v>
       </c>
       <c r="AC22">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD22">
-        <v>1.77</v>
+        <v>2.45</v>
       </c>
       <c r="AE22">
-        <v>1.24</v>
+        <v>1.18</v>
       </c>
       <c r="AF22">
-        <v>1.44</v>
+        <v>1.34</v>
       </c>
       <c r="AG22">
-        <v>1.8</v>
+        <v>1.61</v>
       </c>
       <c r="AH22">
-        <v>2.35</v>
+        <v>2.05</v>
       </c>
       <c r="AI22">
-        <v>3.25</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="23" spans="1:35">
@@ -3277,99 +3271,99 @@
         <v>90</v>
       </c>
       <c r="F23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G23">
+        <v>2.97</v>
+      </c>
+      <c r="H23">
+        <v>3.4</v>
+      </c>
+      <c r="I23">
+        <v>2.36</v>
+      </c>
+      <c r="J23">
+        <v>1.03</v>
+      </c>
+      <c r="K23">
+        <v>9</v>
+      </c>
+      <c r="L23">
+        <v>1.25</v>
+      </c>
+      <c r="M23">
+        <v>3.6</v>
+      </c>
+      <c r="N23">
+        <v>1.81</v>
+      </c>
+      <c r="O23">
+        <v>1.91</v>
+      </c>
+      <c r="P23">
+        <v>1.4</v>
+      </c>
+      <c r="Q23">
         <v>2.75</v>
       </c>
-      <c r="H23">
-        <v>3.1</v>
-      </c>
-      <c r="I23">
-        <v>2.5</v>
-      </c>
-      <c r="J23">
-        <v>1.07</v>
-      </c>
-      <c r="K23">
-        <v>9.5</v>
-      </c>
-      <c r="L23">
+      <c r="R23">
+        <v>1.73</v>
+      </c>
+      <c r="S23">
+        <v>2</v>
+      </c>
+      <c r="T23">
+        <v>1.65</v>
+      </c>
+      <c r="U23">
+        <v>1.25</v>
+      </c>
+      <c r="V23">
         <v>1.4</v>
       </c>
-      <c r="M23">
-        <v>3</v>
-      </c>
-      <c r="N23">
-        <v>2.1</v>
-      </c>
-      <c r="O23">
-        <v>1.67</v>
-      </c>
-      <c r="P23">
-        <v>1.44</v>
-      </c>
-      <c r="Q23">
-        <v>2.63</v>
-      </c>
-      <c r="R23">
-        <v>1.83</v>
-      </c>
-      <c r="S23">
-        <v>1.83</v>
-      </c>
-      <c r="T23">
-        <v>1.53</v>
-      </c>
-      <c r="U23">
-        <v>1.28</v>
-      </c>
-      <c r="V23">
-        <v>1.47</v>
-      </c>
       <c r="W23">
-        <v>1</v>
+        <v>2.25</v>
       </c>
       <c r="X23">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="Y23">
+        <v>1.6</v>
+      </c>
+      <c r="Z23">
         <v>1.61</v>
       </c>
-      <c r="Z23">
-        <v>1.4</v>
-      </c>
       <c r="AA23">
-        <v>3.01</v>
+        <v>3.21</v>
       </c>
       <c r="AB23">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AC23">
         <v>7</v>
       </c>
       <c r="AD23">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="AE23">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AF23">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="AG23">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="AH23">
-        <v>2.25</v>
+        <v>2.45</v>
       </c>
       <c r="AI23">
-        <v>2.98</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="24" spans="1:35">
       <c r="A24" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B24" s="2">
         <v>45178</v>
@@ -3384,34 +3378,34 @@
         <v>91</v>
       </c>
       <c r="F24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G24">
-        <v>2.15</v>
+        <v>1.81</v>
       </c>
       <c r="H24">
-        <v>3.3</v>
+        <v>3.58</v>
       </c>
       <c r="I24">
-        <v>3.15</v>
+        <v>4.49</v>
       </c>
       <c r="J24">
         <v>1.05</v>
       </c>
       <c r="K24">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L24">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="M24">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="N24">
-        <v>1.84</v>
+        <v>1.98</v>
       </c>
       <c r="O24">
-        <v>1.96</v>
+        <v>1.78</v>
       </c>
       <c r="P24">
         <v>1.4</v>
@@ -3420,58 +3414,58 @@
         <v>2.75</v>
       </c>
       <c r="R24">
-        <v>1.73</v>
+        <v>1.91</v>
       </c>
       <c r="S24">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="T24">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="U24">
         <v>1.25</v>
       </c>
       <c r="V24">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="W24">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="X24">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="Y24">
-        <v>1.27</v>
+        <v>1.41</v>
       </c>
       <c r="Z24">
-        <v>1.35</v>
+        <v>1.23</v>
       </c>
       <c r="AA24">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="AB24">
-        <v>1.76</v>
+        <v>1.49</v>
       </c>
       <c r="AC24">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AD24">
-        <v>2.45</v>
+        <v>3.16</v>
       </c>
       <c r="AE24">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="AF24">
-        <v>1.34</v>
+        <v>1.43</v>
       </c>
       <c r="AG24">
-        <v>1.61</v>
+        <v>1.85</v>
       </c>
       <c r="AH24">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="AI24">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="25" spans="1:35">
@@ -3491,7 +3485,7 @@
         <v>92</v>
       </c>
       <c r="F25" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G25">
         <v>2.55</v>
@@ -3598,7 +3592,7 @@
         <v>93</v>
       </c>
       <c r="F26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G26">
         <v>2.47</v>
@@ -3690,7 +3684,7 @@
     </row>
     <row r="27" spans="1:35">
       <c r="A27" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B27" s="2">
         <v>45178</v>
@@ -3705,99 +3699,99 @@
         <v>94</v>
       </c>
       <c r="F27" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>3.78</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="L27">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="M27">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N27">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="O27">
-        <v>0</v>
+        <v>1.97</v>
       </c>
       <c r="P27">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="Q27">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R27">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="S27">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="T27">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="U27">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="V27">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="W27">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="X27">
+        <v>0</v>
+      </c>
+      <c r="Y27">
+        <v>1.97</v>
+      </c>
+      <c r="Z27">
         <v>1.33</v>
       </c>
-      <c r="Y27">
-        <v>1.51</v>
-      </c>
-      <c r="Z27">
-        <v>1.36</v>
-      </c>
       <c r="AA27">
-        <v>2.87</v>
+        <v>3.3</v>
       </c>
       <c r="AB27">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AC27">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AD27">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="AE27">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AF27">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="AG27">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AH27">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AI27">
-        <v>0</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="28" spans="1:35">
       <c r="A28" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B28" s="2">
         <v>45178</v>
@@ -3812,94 +3806,94 @@
         <v>95</v>
       </c>
       <c r="F28" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G28">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="H28">
-        <v>4.6</v>
+        <v>0</v>
       </c>
       <c r="I28">
-        <v>6.75</v>
+        <v>0</v>
       </c>
       <c r="J28">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="K28">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="L28">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="M28">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N28">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="O28">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="P28">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="Q28">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="R28">
-        <v>1.73</v>
+        <v>0</v>
       </c>
       <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <v>0</v>
+      </c>
+      <c r="V28">
+        <v>0</v>
+      </c>
+      <c r="W28">
         <v>2</v>
       </c>
-      <c r="T28">
-        <v>1.09</v>
-      </c>
-      <c r="U28">
-        <v>1.14</v>
-      </c>
-      <c r="V28">
-        <v>2.9</v>
-      </c>
-      <c r="W28">
+      <c r="X28">
         <v>1.33</v>
       </c>
-      <c r="X28">
-        <v>0</v>
-      </c>
       <c r="Y28">
-        <v>2.25</v>
+        <v>1.51</v>
       </c>
       <c r="Z28">
-        <v>1.28</v>
+        <v>1.36</v>
       </c>
       <c r="AA28">
-        <v>3.53</v>
+        <v>2.87</v>
       </c>
       <c r="AB28">
-        <v>1.31</v>
+        <v>0</v>
       </c>
       <c r="AC28">
-        <v>10.7</v>
+        <v>0</v>
       </c>
       <c r="AD28">
-        <v>4.37</v>
+        <v>0</v>
       </c>
       <c r="AE28">
-        <v>1.24</v>
+        <v>0</v>
       </c>
       <c r="AF28">
-        <v>1.46</v>
+        <v>0</v>
       </c>
       <c r="AG28">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="AH28">
-        <v>2.37</v>
+        <v>0</v>
       </c>
       <c r="AI28">
-        <v>3.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:35">
@@ -3919,7 +3913,7 @@
         <v>96</v>
       </c>
       <c r="F29" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -4026,16 +4020,16 @@
         <v>97</v>
       </c>
       <c r="F30" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G30">
-        <v>1.75</v>
+        <v>1.87</v>
       </c>
       <c r="H30">
-        <v>3.4</v>
+        <v>3.62</v>
       </c>
       <c r="I30">
-        <v>4.4</v>
+        <v>4.11</v>
       </c>
       <c r="J30">
         <v>1.05</v>
@@ -4050,10 +4044,10 @@
         <v>3.4</v>
       </c>
       <c r="N30">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="O30">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="P30">
         <v>1.4</v>
@@ -4077,10 +4071,10 @@
         <v>2.1</v>
       </c>
       <c r="W30">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="X30">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="Y30">
         <v>1.21</v>
@@ -4118,7 +4112,7 @@
     </row>
     <row r="31" spans="1:35">
       <c r="A31" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B31" s="2">
         <v>45178</v>
@@ -4133,212 +4127,212 @@
         <v>98</v>
       </c>
       <c r="F31" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G31">
-        <v>2.33</v>
+        <v>1.61</v>
       </c>
       <c r="H31">
-        <v>3.35</v>
+        <v>4.3</v>
       </c>
       <c r="I31">
+        <v>4.98</v>
+      </c>
+      <c r="J31">
+        <v>1.02</v>
+      </c>
+      <c r="K31">
+        <v>19</v>
+      </c>
+      <c r="L31">
+        <v>1.18</v>
+      </c>
+      <c r="M31">
+        <v>5</v>
+      </c>
+      <c r="N31">
+        <v>1.55</v>
+      </c>
+      <c r="O31">
+        <v>2.32</v>
+      </c>
+      <c r="P31">
+        <v>1.29</v>
+      </c>
+      <c r="Q31">
+        <v>3.5</v>
+      </c>
+      <c r="R31">
+        <v>1.73</v>
+      </c>
+      <c r="S31">
+        <v>2</v>
+      </c>
+      <c r="T31">
+        <v>1.09</v>
+      </c>
+      <c r="U31">
+        <v>1.14</v>
+      </c>
+      <c r="V31">
         <v>2.9</v>
       </c>
-      <c r="J31">
-        <v>1.06</v>
-      </c>
-      <c r="K31">
-        <v>9.5</v>
-      </c>
-      <c r="L31">
-        <v>1.36</v>
-      </c>
-      <c r="M31">
-        <v>3.1</v>
-      </c>
-      <c r="N31">
-        <v>2</v>
-      </c>
-      <c r="O31">
-        <v>1.8</v>
-      </c>
-      <c r="P31">
-        <v>1.42</v>
-      </c>
-      <c r="Q31">
-        <v>2.65</v>
-      </c>
-      <c r="R31">
-        <v>1.85</v>
-      </c>
-      <c r="S31">
+      <c r="W31">
+        <v>1.75</v>
+      </c>
+      <c r="X31">
+        <v>0</v>
+      </c>
+      <c r="Y31">
+        <v>2.25</v>
+      </c>
+      <c r="Z31">
+        <v>1.28</v>
+      </c>
+      <c r="AA31">
+        <v>3.53</v>
+      </c>
+      <c r="AB31">
+        <v>1.31</v>
+      </c>
+      <c r="AC31">
+        <v>10.7</v>
+      </c>
+      <c r="AD31">
+        <v>4.37</v>
+      </c>
+      <c r="AE31">
+        <v>1.24</v>
+      </c>
+      <c r="AF31">
+        <v>1.46</v>
+      </c>
+      <c r="AG31">
         <v>1.9</v>
       </c>
-      <c r="T31">
-        <v>1.42</v>
-      </c>
-      <c r="U31">
-        <v>1.28</v>
-      </c>
-      <c r="V31">
-        <v>1.55</v>
-      </c>
-      <c r="W31">
-        <v>1.33</v>
-      </c>
-      <c r="X31">
-        <v>1.5</v>
-      </c>
-      <c r="Y31">
-        <v>1.54</v>
-      </c>
-      <c r="Z31">
-        <v>1.39</v>
-      </c>
-      <c r="AA31">
-        <v>2.93</v>
-      </c>
-      <c r="AB31">
-        <v>0</v>
-      </c>
-      <c r="AC31">
-        <v>0</v>
-      </c>
-      <c r="AD31">
-        <v>0</v>
-      </c>
-      <c r="AE31">
-        <v>0</v>
-      </c>
-      <c r="AF31">
-        <v>0</v>
-      </c>
-      <c r="AG31">
-        <v>0</v>
-      </c>
       <c r="AH31">
-        <v>0</v>
+        <v>2.37</v>
       </c>
       <c r="AI31">
-        <v>0</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="32" spans="1:35">
       <c r="A32" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B32" s="2">
         <v>45178</v>
       </c>
       <c r="C32" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D32">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E32" t="s">
         <v>99</v>
       </c>
       <c r="F32" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G32">
-        <v>1.77</v>
+        <v>2.49</v>
       </c>
       <c r="H32">
-        <v>3.55</v>
+        <v>2.93</v>
       </c>
       <c r="I32">
-        <v>4.2</v>
+        <v>2.97</v>
       </c>
       <c r="J32">
-        <v>1.05</v>
+        <v>1.11</v>
       </c>
       <c r="K32">
-        <v>10</v>
+        <v>6.5</v>
       </c>
       <c r="L32">
-        <v>1.36</v>
+        <v>1.52</v>
       </c>
       <c r="M32">
-        <v>3.2</v>
+        <v>2.45</v>
       </c>
       <c r="N32">
-        <v>2.15</v>
+        <v>2.62</v>
       </c>
       <c r="O32">
+        <v>1.43</v>
+      </c>
+      <c r="P32">
+        <v>1.59</v>
+      </c>
+      <c r="Q32">
+        <v>2.24</v>
+      </c>
+      <c r="R32">
+        <v>2.14</v>
+      </c>
+      <c r="S32">
+        <v>1.66</v>
+      </c>
+      <c r="T32">
+        <v>1.46</v>
+      </c>
+      <c r="U32">
+        <v>1.38</v>
+      </c>
+      <c r="V32">
+        <v>1.43</v>
+      </c>
+      <c r="W32">
+        <v>2.33</v>
+      </c>
+      <c r="X32">
+        <v>0</v>
+      </c>
+      <c r="Y32">
         <v>1.7</v>
       </c>
-      <c r="P32">
-        <v>1.4</v>
-      </c>
-      <c r="Q32">
-        <v>2.75</v>
-      </c>
-      <c r="R32">
+      <c r="Z32">
+        <v>1.35</v>
+      </c>
+      <c r="AA32">
+        <v>3.05</v>
+      </c>
+      <c r="AB32">
+        <v>2.2</v>
+      </c>
+      <c r="AC32">
+        <v>8</v>
+      </c>
+      <c r="AD32">
         <v>1.91</v>
       </c>
-      <c r="S32">
-        <v>1.91</v>
-      </c>
-      <c r="T32">
-        <v>1.22</v>
-      </c>
-      <c r="U32">
-        <v>1.25</v>
-      </c>
-      <c r="V32">
-        <v>1.95</v>
-      </c>
-      <c r="W32">
-        <v>2</v>
-      </c>
-      <c r="X32">
-        <v>0.33</v>
-      </c>
-      <c r="Y32">
-        <v>1.41</v>
-      </c>
-      <c r="Z32">
-        <v>1.23</v>
-      </c>
-      <c r="AA32">
-        <v>2.64</v>
-      </c>
-      <c r="AB32">
+      <c r="AE32">
+        <v>1.26</v>
+      </c>
+      <c r="AF32">
         <v>1.49</v>
       </c>
-      <c r="AC32">
-        <v>9.4</v>
-      </c>
-      <c r="AD32">
-        <v>3.16</v>
-      </c>
-      <c r="AE32">
-        <v>1.22</v>
-      </c>
-      <c r="AF32">
-        <v>1.43</v>
-      </c>
       <c r="AG32">
-        <v>1.85</v>
+        <v>1.98</v>
       </c>
       <c r="AH32">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="AI32">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="33" spans="1:35">
       <c r="A33" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B33" s="2">
         <v>45178</v>
       </c>
       <c r="C33" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D33">
         <v>5</v>
@@ -4347,319 +4341,319 @@
         <v>100</v>
       </c>
       <c r="F33" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G33">
-        <v>2.62</v>
+        <v>2.35</v>
       </c>
       <c r="H33">
-        <v>2.87</v>
+        <v>3.62</v>
       </c>
       <c r="I33">
-        <v>2.8</v>
+        <v>2.81</v>
       </c>
       <c r="J33">
-        <v>1.11</v>
+        <v>1.02</v>
       </c>
       <c r="K33">
-        <v>6.5</v>
+        <v>15</v>
       </c>
       <c r="L33">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="M33">
-        <v>2.3</v>
+        <v>4.33</v>
       </c>
       <c r="N33">
-        <v>2.6</v>
+        <v>1.66</v>
       </c>
       <c r="O33">
-        <v>1.44</v>
+        <v>2.2</v>
       </c>
       <c r="P33">
+        <v>1.29</v>
+      </c>
+      <c r="Q33">
+        <v>3.3</v>
+      </c>
+      <c r="R33">
+        <v>1.58</v>
+      </c>
+      <c r="S33">
+        <v>2.29</v>
+      </c>
+      <c r="T33">
+        <v>1.43</v>
+      </c>
+      <c r="U33">
+        <v>1.29</v>
+      </c>
+      <c r="V33">
         <v>1.59</v>
       </c>
-      <c r="Q33">
-        <v>2.24</v>
-      </c>
-      <c r="R33">
-        <v>2.14</v>
-      </c>
-      <c r="S33">
-        <v>1.66</v>
-      </c>
-      <c r="T33">
-        <v>1.46</v>
-      </c>
-      <c r="U33">
-        <v>1.38</v>
-      </c>
-      <c r="V33">
-        <v>1.43</v>
-      </c>
       <c r="W33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y33">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="Z33">
-        <v>1.35</v>
+        <v>1.26</v>
       </c>
       <c r="AA33">
-        <v>3.05</v>
+        <v>2.9</v>
       </c>
       <c r="AB33">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="AC33">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD33">
-        <v>1.91</v>
+        <v>2.5</v>
       </c>
       <c r="AE33">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AF33">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="AG33">
-        <v>1.98</v>
+        <v>1.82</v>
       </c>
       <c r="AH33">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AI33">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="34" spans="1:35">
       <c r="A34" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B34" s="2">
         <v>45178</v>
       </c>
       <c r="C34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D34">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E34" t="s">
         <v>101</v>
       </c>
       <c r="F34" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G34">
-        <v>2.35</v>
+        <v>1.7</v>
       </c>
       <c r="H34">
-        <v>3.62</v>
+        <v>3.3</v>
       </c>
       <c r="I34">
-        <v>2.81</v>
+        <v>4.4</v>
       </c>
       <c r="J34">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="K34">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="L34">
-        <v>1.2</v>
+        <v>1.33</v>
       </c>
       <c r="M34">
-        <v>4.33</v>
+        <v>3.25</v>
       </c>
       <c r="N34">
-        <v>1.66</v>
+        <v>1.95</v>
       </c>
       <c r="O34">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="P34">
+        <v>1.4</v>
+      </c>
+      <c r="Q34">
+        <v>2.75</v>
+      </c>
+      <c r="R34">
+        <v>1.87</v>
+      </c>
+      <c r="S34">
+        <v>1.89</v>
+      </c>
+      <c r="T34">
+        <v>1.17</v>
+      </c>
+      <c r="U34">
+        <v>1.25</v>
+      </c>
+      <c r="V34">
+        <v>1.99</v>
+      </c>
+      <c r="W34">
+        <v>2.31</v>
+      </c>
+      <c r="X34">
+        <v>2</v>
+      </c>
+      <c r="Y34">
+        <v>1.71</v>
+      </c>
+      <c r="Z34">
         <v>1.29</v>
       </c>
-      <c r="Q34">
-        <v>3.3</v>
-      </c>
-      <c r="R34">
-        <v>1.58</v>
-      </c>
-      <c r="S34">
-        <v>2.29</v>
-      </c>
-      <c r="T34">
-        <v>1.43</v>
-      </c>
-      <c r="U34">
-        <v>1.29</v>
-      </c>
-      <c r="V34">
-        <v>1.59</v>
-      </c>
-      <c r="W34">
-        <v>0</v>
-      </c>
-      <c r="X34">
-        <v>1</v>
-      </c>
-      <c r="Y34">
-        <v>1.64</v>
-      </c>
-      <c r="Z34">
-        <v>1.26</v>
-      </c>
       <c r="AA34">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="AB34">
-        <v>1.75</v>
+        <v>1.52</v>
       </c>
       <c r="AC34">
-        <v>7.5</v>
+        <v>8.9</v>
       </c>
       <c r="AD34">
-        <v>2.5</v>
+        <v>2.98</v>
       </c>
       <c r="AE34">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="AF34">
-        <v>1.47</v>
+        <v>1.6</v>
       </c>
       <c r="AG34">
-        <v>1.82</v>
+        <v>2.04</v>
       </c>
       <c r="AH34">
-        <v>2.38</v>
+        <v>2.71</v>
       </c>
       <c r="AI34">
-        <v>3.25</v>
+        <v>3.74</v>
       </c>
     </row>
     <row r="35" spans="1:35">
       <c r="A35" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B35" s="2">
         <v>45178</v>
       </c>
       <c r="C35" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D35">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E35" t="s">
         <v>102</v>
       </c>
       <c r="F35" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G35">
-        <v>1.7</v>
+        <v>2.26</v>
       </c>
       <c r="H35">
-        <v>3.3</v>
+        <v>2.91</v>
       </c>
       <c r="I35">
-        <v>4.4</v>
+        <v>3.4</v>
       </c>
       <c r="J35">
-        <v>1.06</v>
+        <v>1.11</v>
       </c>
       <c r="K35">
+        <v>6.5</v>
+      </c>
+      <c r="L35">
+        <v>1.54</v>
+      </c>
+      <c r="M35">
+        <v>2.4</v>
+      </c>
+      <c r="N35">
+        <v>2.73</v>
+      </c>
+      <c r="O35">
+        <v>1.4</v>
+      </c>
+      <c r="P35">
+        <v>1.6</v>
+      </c>
+      <c r="Q35">
+        <v>2.22</v>
+      </c>
+      <c r="R35">
+        <v>2.2</v>
+      </c>
+      <c r="S35">
+        <v>1.62</v>
+      </c>
+      <c r="T35">
+        <v>1.29</v>
+      </c>
+      <c r="U35">
+        <v>1.38</v>
+      </c>
+      <c r="V35">
+        <v>1.64</v>
+      </c>
+      <c r="W35">
+        <v>1</v>
+      </c>
+      <c r="X35">
+        <v>0</v>
+      </c>
+      <c r="Y35">
+        <v>1.44</v>
+      </c>
+      <c r="Z35">
+        <v>0.92</v>
+      </c>
+      <c r="AA35">
+        <v>2.36</v>
+      </c>
+      <c r="AB35">
+        <v>1.69</v>
+      </c>
+      <c r="AC35">
         <v>8</v>
       </c>
-      <c r="L35">
-        <v>1.33</v>
-      </c>
-      <c r="M35">
-        <v>3.25</v>
-      </c>
-      <c r="N35">
-        <v>1.95</v>
-      </c>
-      <c r="O35">
-        <v>1.75</v>
-      </c>
-      <c r="P35">
-        <v>1.4</v>
-      </c>
-      <c r="Q35">
-        <v>2.75</v>
-      </c>
-      <c r="R35">
-        <v>1.87</v>
-      </c>
-      <c r="S35">
-        <v>1.89</v>
-      </c>
-      <c r="T35">
-        <v>1.17</v>
-      </c>
-      <c r="U35">
-        <v>1.25</v>
-      </c>
-      <c r="V35">
-        <v>1.99</v>
-      </c>
-      <c r="W35">
-        <v>2.31</v>
-      </c>
-      <c r="X35">
-        <v>2</v>
-      </c>
-      <c r="Y35">
-        <v>1.71</v>
-      </c>
-      <c r="Z35">
-        <v>1.29</v>
-      </c>
-      <c r="AA35">
-        <v>3</v>
-      </c>
-      <c r="AB35">
-        <v>1.52</v>
-      </c>
-      <c r="AC35">
-        <v>8.9</v>
-      </c>
       <c r="AD35">
-        <v>2.98</v>
+        <v>2.65</v>
       </c>
       <c r="AE35">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AF35">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AG35">
-        <v>2.04</v>
+        <v>1.98</v>
       </c>
       <c r="AH35">
-        <v>2.71</v>
+        <v>2.65</v>
       </c>
       <c r="AI35">
-        <v>3.74</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="36" spans="1:35">
       <c r="A36" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B36" s="2">
         <v>45178</v>
       </c>
       <c r="C36" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D36">
         <v>5</v>
@@ -4668,177 +4662,177 @@
         <v>103</v>
       </c>
       <c r="F36" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G36">
-        <v>2.25</v>
+        <v>1.26</v>
       </c>
       <c r="H36">
-        <v>2.87</v>
+        <v>6</v>
       </c>
       <c r="I36">
-        <v>3.4</v>
+        <v>10.25</v>
       </c>
       <c r="J36">
-        <v>1.11</v>
+        <v>1.02</v>
       </c>
       <c r="K36">
-        <v>6.5</v>
+        <v>17</v>
       </c>
       <c r="L36">
-        <v>1.53</v>
+        <v>1.14</v>
       </c>
       <c r="M36">
-        <v>2.25</v>
+        <v>5.5</v>
       </c>
       <c r="N36">
-        <v>2.75</v>
+        <v>1.47</v>
       </c>
       <c r="O36">
-        <v>1.4</v>
+        <v>2.65</v>
       </c>
       <c r="P36">
-        <v>1.6</v>
+        <v>1.22</v>
       </c>
       <c r="Q36">
-        <v>2.22</v>
+        <v>3.9</v>
       </c>
       <c r="R36">
-        <v>2.2</v>
+        <v>1.89</v>
       </c>
       <c r="S36">
-        <v>1.62</v>
+        <v>1.85</v>
       </c>
       <c r="T36">
-        <v>1.29</v>
+        <v>1.04</v>
       </c>
       <c r="U36">
-        <v>1.38</v>
+        <v>1.12</v>
       </c>
       <c r="V36">
-        <v>1.64</v>
+        <v>3.8</v>
       </c>
       <c r="W36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X36">
         <v>0</v>
       </c>
       <c r="Y36">
-        <v>1.44</v>
+        <v>2.45</v>
       </c>
       <c r="Z36">
-        <v>0.92</v>
+        <v>0.89</v>
       </c>
       <c r="AA36">
-        <v>2.36</v>
+        <v>3.34</v>
       </c>
       <c r="AB36">
-        <v>1.69</v>
+        <v>1.14</v>
       </c>
       <c r="AC36">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AD36">
-        <v>2.65</v>
+        <v>7.5</v>
       </c>
       <c r="AE36">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="AF36">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AG36">
-        <v>1.98</v>
+        <v>1.74</v>
       </c>
       <c r="AH36">
-        <v>2.65</v>
+        <v>2.23</v>
       </c>
       <c r="AI36">
-        <v>3.8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:35">
       <c r="A37" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B37" s="2">
         <v>45178</v>
       </c>
       <c r="C37" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D37">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E37" t="s">
         <v>104</v>
       </c>
       <c r="F37" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G37">
-        <v>1.26</v>
+        <v>4</v>
       </c>
       <c r="H37">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="I37">
-        <v>10.25</v>
+        <v>1.77</v>
       </c>
       <c r="J37">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="K37">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="L37">
-        <v>1.14</v>
+        <v>0</v>
       </c>
       <c r="M37">
-        <v>5.5</v>
+        <v>0</v>
       </c>
       <c r="N37">
-        <v>1.47</v>
+        <v>1.66</v>
       </c>
       <c r="O37">
-        <v>2.65</v>
+        <v>2.14</v>
       </c>
       <c r="P37">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="Q37">
-        <v>3.9</v>
+        <v>0</v>
       </c>
       <c r="R37">
-        <v>1.89</v>
+        <v>0</v>
       </c>
       <c r="S37">
-        <v>1.85</v>
+        <v>0</v>
       </c>
       <c r="T37">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="U37">
-        <v>1.12</v>
+        <v>0</v>
       </c>
       <c r="V37">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="W37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X37">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y37">
-        <v>2.45</v>
+        <v>0.68</v>
       </c>
       <c r="Z37">
-        <v>0.89</v>
+        <v>1.43</v>
       </c>
       <c r="AA37">
-        <v>3.34</v>
+        <v>2.11</v>
       </c>
       <c r="AB37">
         <v>0</v>
@@ -4850,233 +4844,233 @@
         <v>0</v>
       </c>
       <c r="AE37">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="AF37">
-        <v>1.42</v>
+        <v>0</v>
       </c>
       <c r="AG37">
-        <v>1.74</v>
+        <v>0</v>
       </c>
       <c r="AH37">
-        <v>2.23</v>
+        <v>0</v>
       </c>
       <c r="AI37">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:35">
       <c r="A38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B38" s="2">
         <v>45178</v>
       </c>
       <c r="C38" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D38">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E38" t="s">
         <v>105</v>
       </c>
       <c r="F38" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G38">
-        <v>4.75</v>
+        <v>1.91</v>
       </c>
       <c r="H38">
+        <v>3.1</v>
+      </c>
+      <c r="I38">
+        <v>3.7</v>
+      </c>
+      <c r="J38">
+        <v>1.07</v>
+      </c>
+      <c r="K38">
+        <v>7.5</v>
+      </c>
+      <c r="L38">
+        <v>1.36</v>
+      </c>
+      <c r="M38">
+        <v>3</v>
+      </c>
+      <c r="N38">
+        <v>2.1</v>
+      </c>
+      <c r="O38">
+        <v>1.67</v>
+      </c>
+      <c r="P38">
+        <v>1.43</v>
+      </c>
+      <c r="Q38">
+        <v>2.6</v>
+      </c>
+      <c r="R38">
+        <v>1.85</v>
+      </c>
+      <c r="S38">
+        <v>1.91</v>
+      </c>
+      <c r="T38">
+        <v>1.24</v>
+      </c>
+      <c r="U38">
+        <v>1.28</v>
+      </c>
+      <c r="V38">
+        <v>1.77</v>
+      </c>
+      <c r="W38">
+        <v>2.36</v>
+      </c>
+      <c r="X38">
+        <v>1.62</v>
+      </c>
+      <c r="Y38">
+        <v>1.59</v>
+      </c>
+      <c r="Z38">
+        <v>1.33</v>
+      </c>
+      <c r="AA38">
+        <v>2.92</v>
+      </c>
+      <c r="AB38">
+        <v>1.64</v>
+      </c>
+      <c r="AC38">
+        <v>8.6</v>
+      </c>
+      <c r="AD38">
+        <v>2.64</v>
+      </c>
+      <c r="AE38">
+        <v>1.36</v>
+      </c>
+      <c r="AF38">
+        <v>1.67</v>
+      </c>
+      <c r="AG38">
+        <v>2.11</v>
+      </c>
+      <c r="AH38">
+        <v>2.84</v>
+      </c>
+      <c r="AI38">
         <v>3.8</v>
-      </c>
-      <c r="I38">
-        <v>1.73</v>
-      </c>
-      <c r="J38">
-        <v>0</v>
-      </c>
-      <c r="K38">
-        <v>0</v>
-      </c>
-      <c r="L38">
-        <v>0</v>
-      </c>
-      <c r="M38">
-        <v>0</v>
-      </c>
-      <c r="N38">
-        <v>1.73</v>
-      </c>
-      <c r="O38">
-        <v>2</v>
-      </c>
-      <c r="P38">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>0</v>
-      </c>
-      <c r="R38">
-        <v>0</v>
-      </c>
-      <c r="S38">
-        <v>0</v>
-      </c>
-      <c r="T38">
-        <v>0</v>
-      </c>
-      <c r="U38">
-        <v>0</v>
-      </c>
-      <c r="V38">
-        <v>0</v>
-      </c>
-      <c r="W38">
-        <v>0</v>
-      </c>
-      <c r="X38">
-        <v>3</v>
-      </c>
-      <c r="Y38">
-        <v>0.68</v>
-      </c>
-      <c r="Z38">
-        <v>1.43</v>
-      </c>
-      <c r="AA38">
-        <v>2.11</v>
-      </c>
-      <c r="AB38">
-        <v>0</v>
-      </c>
-      <c r="AC38">
-        <v>0</v>
-      </c>
-      <c r="AD38">
-        <v>0</v>
-      </c>
-      <c r="AE38">
-        <v>0</v>
-      </c>
-      <c r="AF38">
-        <v>0</v>
-      </c>
-      <c r="AG38">
-        <v>0</v>
-      </c>
-      <c r="AH38">
-        <v>0</v>
-      </c>
-      <c r="AI38">
-        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:35">
       <c r="A39" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B39" s="2">
         <v>45178</v>
       </c>
       <c r="C39" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D39">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E39" t="s">
         <v>106</v>
       </c>
       <c r="F39" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G39">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="H39">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="I39">
-        <v>3.7</v>
+        <v>4.35</v>
       </c>
       <c r="J39">
-        <v>1.07</v>
+        <v>1.11</v>
       </c>
       <c r="K39">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="L39">
-        <v>1.36</v>
+        <v>1.52</v>
       </c>
       <c r="M39">
-        <v>3</v>
+        <v>2.45</v>
       </c>
       <c r="N39">
-        <v>2.1</v>
+        <v>2.65</v>
       </c>
       <c r="O39">
-        <v>1.67</v>
+        <v>1.42</v>
       </c>
       <c r="P39">
-        <v>1.43</v>
+        <v>1.57</v>
       </c>
       <c r="Q39">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="R39">
-        <v>1.85</v>
+        <v>2.27</v>
       </c>
       <c r="S39">
-        <v>1.91</v>
+        <v>1.59</v>
       </c>
       <c r="T39">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="U39">
-        <v>1.28</v>
+        <v>1.35</v>
       </c>
       <c r="V39">
-        <v>1.77</v>
+        <v>1.81</v>
       </c>
       <c r="W39">
-        <v>2.36</v>
+        <v>1.5</v>
       </c>
       <c r="X39">
-        <v>1.62</v>
+        <v>1</v>
       </c>
       <c r="Y39">
-        <v>1.59</v>
+        <v>1.25</v>
       </c>
       <c r="Z39">
-        <v>1.33</v>
+        <v>0.9</v>
       </c>
       <c r="AA39">
-        <v>2.92</v>
+        <v>2.15</v>
       </c>
       <c r="AB39">
         <v>1.64</v>
       </c>
       <c r="AC39">
-        <v>8.6</v>
+        <v>8</v>
       </c>
       <c r="AD39">
-        <v>2.64</v>
+        <v>2.77</v>
       </c>
       <c r="AE39">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="AF39">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AG39">
-        <v>2.11</v>
+        <v>2.1</v>
       </c>
       <c r="AH39">
-        <v>2.84</v>
+        <v>2.87</v>
       </c>
       <c r="AI39">
-        <v>3.8</v>
+        <v>3.84</v>
       </c>
     </row>
     <row r="40" spans="1:35">
@@ -5096,7 +5090,7 @@
         <v>107</v>
       </c>
       <c r="F40" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G40">
         <v>2.03</v>
@@ -5162,13 +5156,13 @@
         <v>2.81</v>
       </c>
       <c r="AB40">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="AC40">
-        <v>0</v>
+        <v>8.9</v>
       </c>
       <c r="AD40">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="AE40">
         <v>1.36</v>
@@ -5203,16 +5197,16 @@
         <v>108</v>
       </c>
       <c r="F41" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G41">
         <v>2.1</v>
       </c>
       <c r="H41">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="I41">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="J41">
         <v>1.1</v>
@@ -5227,10 +5221,10 @@
         <v>2.35</v>
       </c>
       <c r="N41">
-        <v>2.37</v>
+        <v>2.45</v>
       </c>
       <c r="O41">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="P41">
         <v>1.57</v>
@@ -5295,31 +5289,31 @@
     </row>
     <row r="42" spans="1:35">
       <c r="A42" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B42" s="2">
         <v>45178</v>
       </c>
       <c r="C42" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D42">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="E42" t="s">
         <v>109</v>
       </c>
       <c r="F42" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G42">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="H42">
-        <v>2.95</v>
+        <v>3.05</v>
       </c>
       <c r="I42">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="J42">
         <v>1.11</v>
@@ -5328,81 +5322,81 @@
         <v>6.5</v>
       </c>
       <c r="L42">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="M42">
-        <v>2.35</v>
+        <v>2.33</v>
       </c>
       <c r="N42">
-        <v>2.55</v>
+        <v>2.73</v>
       </c>
       <c r="O42">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="P42">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="Q42">
+        <v>2.2</v>
+      </c>
+      <c r="R42">
         <v>2.25</v>
       </c>
-      <c r="R42">
-        <v>2.27</v>
-      </c>
       <c r="S42">
-        <v>1.59</v>
+        <v>1.55</v>
       </c>
       <c r="T42">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="U42">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
       <c r="V42">
-        <v>1.81</v>
+        <v>1.68</v>
       </c>
       <c r="W42">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="X42">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="Y42">
-        <v>1.25</v>
+        <v>1.43</v>
       </c>
       <c r="Z42">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="AA42">
-        <v>2.15</v>
+        <v>2.53</v>
       </c>
       <c r="AB42">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="AC42">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="AD42">
-        <v>2.77</v>
+        <v>2.86</v>
       </c>
       <c r="AE42">
-        <v>1.34</v>
+        <v>1.15</v>
       </c>
       <c r="AF42">
-        <v>1.62</v>
+        <v>1.26</v>
       </c>
       <c r="AG42">
-        <v>2.1</v>
+        <v>1.47</v>
       </c>
       <c r="AH42">
-        <v>2.87</v>
+        <v>1.95</v>
       </c>
       <c r="AI42">
-        <v>3.84</v>
+        <v>2.37</v>
       </c>
     </row>
     <row r="43" spans="1:35">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B43" s="2">
         <v>45178</v>
@@ -5417,16 +5411,16 @@
         <v>110</v>
       </c>
       <c r="F43" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G43">
-        <v>2.15</v>
+        <v>2.17</v>
       </c>
       <c r="H43">
-        <v>2.88</v>
+        <v>2.98</v>
       </c>
       <c r="I43">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="J43">
         <v>1.08</v>
@@ -5509,537 +5503,537 @@
     </row>
     <row r="44" spans="1:35">
       <c r="A44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B44" s="2">
         <v>45178</v>
       </c>
       <c r="C44" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D44">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
         <v>111</v>
       </c>
       <c r="F44" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G44">
-        <v>2.04</v>
+        <v>2.24</v>
       </c>
       <c r="H44">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="I44">
-        <v>3.62</v>
+        <v>2.68</v>
       </c>
       <c r="J44">
-        <v>1.11</v>
+        <v>0</v>
       </c>
       <c r="K44">
-        <v>6.5</v>
+        <v>0</v>
       </c>
       <c r="L44">
-        <v>1.56</v>
+        <v>0</v>
       </c>
       <c r="M44">
-        <v>2.28</v>
+        <v>0</v>
       </c>
       <c r="N44">
-        <v>2.69</v>
+        <v>1.95</v>
       </c>
       <c r="O44">
-        <v>1.37</v>
+        <v>1.81</v>
       </c>
       <c r="P44">
-        <v>1.58</v>
+        <v>0</v>
       </c>
       <c r="Q44">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="R44">
-        <v>2.25</v>
+        <v>0</v>
       </c>
       <c r="S44">
-        <v>1.55</v>
+        <v>0</v>
       </c>
       <c r="T44">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="U44">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="V44">
-        <v>1.68</v>
+        <v>0</v>
       </c>
       <c r="W44">
-        <v>1.62</v>
+        <v>1.75</v>
       </c>
       <c r="X44">
-        <v>0.85</v>
+        <v>1.63</v>
       </c>
       <c r="Y44">
-        <v>1.43</v>
+        <v>1.35</v>
       </c>
       <c r="Z44">
-        <v>1.1</v>
+        <v>1.17</v>
       </c>
       <c r="AA44">
-        <v>2.53</v>
+        <v>2.52</v>
       </c>
       <c r="AB44">
-        <v>1.62</v>
+        <v>0</v>
       </c>
       <c r="AC44">
-        <v>8.1</v>
+        <v>0</v>
       </c>
       <c r="AD44">
-        <v>2.86</v>
+        <v>0</v>
       </c>
       <c r="AE44">
-        <v>1.15</v>
+        <v>0</v>
       </c>
       <c r="AF44">
-        <v>1.26</v>
+        <v>0</v>
       </c>
       <c r="AG44">
-        <v>1.47</v>
+        <v>0</v>
       </c>
       <c r="AH44">
-        <v>1.95</v>
+        <v>0</v>
       </c>
       <c r="AI44">
-        <v>2.37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:35">
       <c r="A45" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B45" s="2">
         <v>45178</v>
       </c>
       <c r="C45" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D45">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E45" t="s">
         <v>112</v>
       </c>
       <c r="F45" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G45">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="H45">
-        <v>3.3</v>
+        <v>2.87</v>
       </c>
       <c r="I45">
+        <v>2.7</v>
+      </c>
+      <c r="J45">
+        <v>1.1</v>
+      </c>
+      <c r="K45">
+        <v>6.5</v>
+      </c>
+      <c r="L45">
+        <v>1.4</v>
+      </c>
+      <c r="M45">
         <v>2.75</v>
       </c>
-      <c r="J45">
-        <v>0</v>
-      </c>
-      <c r="K45">
-        <v>0</v>
-      </c>
-      <c r="L45">
-        <v>0</v>
-      </c>
-      <c r="M45">
-        <v>0</v>
-      </c>
       <c r="N45">
+        <v>2.35</v>
+      </c>
+      <c r="O45">
+        <v>1.53</v>
+      </c>
+      <c r="P45">
+        <v>1.44</v>
+      </c>
+      <c r="Q45">
+        <v>2.62</v>
+      </c>
+      <c r="R45">
+        <v>1.98</v>
+      </c>
+      <c r="S45">
+        <v>1.79</v>
+      </c>
+      <c r="T45">
+        <v>1.41</v>
+      </c>
+      <c r="U45">
+        <v>1.33</v>
+      </c>
+      <c r="V45">
+        <v>1.44</v>
+      </c>
+      <c r="W45">
+        <v>1.69</v>
+      </c>
+      <c r="X45">
+        <v>0.92</v>
+      </c>
+      <c r="Y45">
+        <v>1.25</v>
+      </c>
+      <c r="Z45">
+        <v>1.46</v>
+      </c>
+      <c r="AA45">
+        <v>2.71</v>
+      </c>
+      <c r="AB45">
+        <v>2.12</v>
+      </c>
+      <c r="AC45">
+        <v>8.5</v>
+      </c>
+      <c r="AD45">
+        <v>1.94</v>
+      </c>
+      <c r="AE45">
+        <v>1.27</v>
+      </c>
+      <c r="AF45">
+        <v>1.51</v>
+      </c>
+      <c r="AG45">
         <v>2</v>
       </c>
-      <c r="O45">
-        <v>1.8</v>
-      </c>
-      <c r="P45">
-        <v>0</v>
-      </c>
-      <c r="Q45">
-        <v>0</v>
-      </c>
-      <c r="R45">
-        <v>0</v>
-      </c>
-      <c r="S45">
-        <v>0</v>
-      </c>
-      <c r="T45">
-        <v>0</v>
-      </c>
-      <c r="U45">
-        <v>0</v>
-      </c>
-      <c r="V45">
-        <v>0</v>
-      </c>
-      <c r="W45">
-        <v>1.75</v>
-      </c>
-      <c r="X45">
-        <v>1.63</v>
-      </c>
-      <c r="Y45">
-        <v>1.35</v>
-      </c>
-      <c r="Z45">
-        <v>1.17</v>
-      </c>
-      <c r="AA45">
-        <v>2.52</v>
-      </c>
-      <c r="AB45">
-        <v>0</v>
-      </c>
-      <c r="AC45">
-        <v>0</v>
-      </c>
-      <c r="AD45">
-        <v>0</v>
-      </c>
-      <c r="AE45">
-        <v>0</v>
-      </c>
-      <c r="AF45">
-        <v>0</v>
-      </c>
-      <c r="AG45">
-        <v>0</v>
-      </c>
       <c r="AH45">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="AI45">
-        <v>0</v>
+        <v>3.34</v>
       </c>
     </row>
     <row r="46" spans="1:35">
       <c r="A46" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B46" s="2">
         <v>45178</v>
       </c>
       <c r="C46" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D46">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E46" t="s">
         <v>113</v>
       </c>
       <c r="F46" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G46">
-        <v>2.5</v>
+        <v>1.92</v>
       </c>
       <c r="H46">
-        <v>2.87</v>
+        <v>3.13</v>
       </c>
       <c r="I46">
-        <v>2.7</v>
+        <v>4.22</v>
       </c>
       <c r="J46">
-        <v>1.1</v>
+        <v>1.06</v>
       </c>
       <c r="K46">
         <v>6.5</v>
       </c>
       <c r="L46">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="M46">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="N46">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="O46">
+        <v>1.48</v>
+      </c>
+      <c r="P46">
         <v>1.53</v>
       </c>
-      <c r="P46">
-        <v>1.44</v>
-      </c>
       <c r="Q46">
-        <v>2.62</v>
+        <v>2.34</v>
       </c>
       <c r="R46">
-        <v>1.98</v>
+        <v>2.07</v>
       </c>
       <c r="S46">
+        <v>1.72</v>
+      </c>
+      <c r="T46">
+        <v>1.19</v>
+      </c>
+      <c r="U46">
+        <v>1.3</v>
+      </c>
+      <c r="V46">
+        <v>1.7</v>
+      </c>
+      <c r="W46">
+        <v>1.8</v>
+      </c>
+      <c r="X46">
+        <v>1.1</v>
+      </c>
+      <c r="Y46">
         <v>1.79</v>
       </c>
-      <c r="T46">
-        <v>1.41</v>
-      </c>
-      <c r="U46">
-        <v>1.33</v>
-      </c>
-      <c r="V46">
-        <v>1.44</v>
-      </c>
-      <c r="W46">
-        <v>1.69</v>
-      </c>
-      <c r="X46">
-        <v>0.92</v>
-      </c>
-      <c r="Y46">
-        <v>1.25</v>
-      </c>
       <c r="Z46">
-        <v>1.46</v>
+        <v>1.58</v>
       </c>
       <c r="AA46">
-        <v>2.71</v>
+        <v>3.37</v>
       </c>
       <c r="AB46">
-        <v>2.12</v>
+        <v>1.7</v>
       </c>
       <c r="AC46">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="AD46">
-        <v>1.94</v>
+        <v>2.7</v>
       </c>
       <c r="AE46">
-        <v>1.27</v>
+        <v>0</v>
       </c>
       <c r="AF46">
-        <v>1.51</v>
+        <v>1.3</v>
       </c>
       <c r="AG46">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AH46">
+        <v>1.95</v>
+      </c>
+      <c r="AI46">
         <v>2.45</v>
-      </c>
-      <c r="AI46">
-        <v>3.34</v>
       </c>
     </row>
     <row r="47" spans="1:35">
       <c r="A47" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B47" s="2">
         <v>45178</v>
       </c>
       <c r="C47" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D47">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
         <v>114</v>
       </c>
       <c r="F47" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G47">
-        <v>1.87</v>
+        <v>2.9</v>
       </c>
       <c r="H47">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="I47">
-        <v>4.15</v>
+        <v>2.25</v>
       </c>
       <c r="J47">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="K47">
-        <v>6.5</v>
+        <v>0</v>
       </c>
       <c r="L47">
-        <v>1.55</v>
+        <v>0</v>
       </c>
       <c r="M47">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="N47">
-        <v>2.36</v>
+        <v>1.88</v>
       </c>
       <c r="O47">
-        <v>1.52</v>
+        <v>1.88</v>
       </c>
       <c r="P47">
-        <v>1.53</v>
+        <v>0</v>
       </c>
       <c r="Q47">
-        <v>2.34</v>
+        <v>0</v>
       </c>
       <c r="R47">
-        <v>2.07</v>
+        <v>0</v>
       </c>
       <c r="S47">
-        <v>1.72</v>
+        <v>0</v>
       </c>
       <c r="T47">
-        <v>1.19</v>
+        <v>0</v>
       </c>
       <c r="U47">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="V47">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="W47">
-        <v>1.8</v>
+        <v>1.33</v>
       </c>
       <c r="X47">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="Y47">
-        <v>1.79</v>
+        <v>1.29</v>
       </c>
       <c r="Z47">
-        <v>1.58</v>
+        <v>1.36</v>
       </c>
       <c r="AA47">
-        <v>3.37</v>
+        <v>2.65</v>
       </c>
       <c r="AB47">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="AC47">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AD47">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="AE47">
         <v>0</v>
       </c>
       <c r="AF47">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="AG47">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="AH47">
-        <v>1.95</v>
+        <v>0</v>
       </c>
       <c r="AI47">
-        <v>2.45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:35">
       <c r="A48" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B48" s="2">
         <v>45178</v>
       </c>
       <c r="C48" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D48">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="E48" t="s">
         <v>115</v>
       </c>
       <c r="F48" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G48">
-        <v>2.75</v>
+        <v>1.68</v>
       </c>
       <c r="H48">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="I48">
-        <v>2.25</v>
+        <v>5.6</v>
       </c>
       <c r="J48">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="K48">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="L48">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="M48">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="N48">
-        <v>1.95</v>
+        <v>2.85</v>
       </c>
       <c r="O48">
-        <v>1.85</v>
+        <v>1.37</v>
       </c>
       <c r="P48">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="Q48">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="R48">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="S48">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="T48">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="U48">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="V48">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="W48">
+        <v>1.69</v>
+      </c>
+      <c r="X48">
         <v>1.33</v>
       </c>
-      <c r="X48">
-        <v>1.6</v>
-      </c>
       <c r="Y48">
-        <v>1.29</v>
+        <v>1.64</v>
       </c>
       <c r="Z48">
-        <v>1.36</v>
+        <v>1.12</v>
       </c>
       <c r="AA48">
-        <v>2.65</v>
+        <v>2.76</v>
       </c>
       <c r="AB48">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="AC48">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD48">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="AE48">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AF48">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="AG48">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AH48">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="AI48">
-        <v>0</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="49" spans="1:35">
@@ -6059,94 +6053,94 @@
         <v>116</v>
       </c>
       <c r="F49" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G49">
-        <v>1.86</v>
+        <v>2.15</v>
       </c>
       <c r="H49">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I49">
-        <v>4.05</v>
+        <v>2.65</v>
       </c>
       <c r="J49">
         <v>1.02</v>
       </c>
       <c r="K49">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="L49">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="M49">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="N49">
-        <v>1.81</v>
+        <v>1.58</v>
       </c>
       <c r="O49">
-        <v>1.9</v>
+        <v>2.33</v>
       </c>
       <c r="P49">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="Q49">
+        <v>3.5</v>
+      </c>
+      <c r="R49">
+        <v>1.53</v>
+      </c>
+      <c r="S49">
+        <v>2.38</v>
+      </c>
+      <c r="T49">
+        <v>1.38</v>
+      </c>
+      <c r="U49">
+        <v>1.26</v>
+      </c>
+      <c r="V49">
+        <v>1.69</v>
+      </c>
+      <c r="W49">
+        <v>1.25</v>
+      </c>
+      <c r="X49">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="Y49">
+        <v>1.32</v>
+      </c>
+      <c r="Z49">
+        <v>1.38</v>
+      </c>
+      <c r="AA49">
+        <v>2.7</v>
+      </c>
+      <c r="AB49">
+        <v>1.85</v>
+      </c>
+      <c r="AC49">
+        <v>7</v>
+      </c>
+      <c r="AD49">
+        <v>2.28</v>
+      </c>
+      <c r="AE49">
+        <v>1.28</v>
+      </c>
+      <c r="AF49">
+        <v>1.53</v>
+      </c>
+      <c r="AG49">
+        <v>1.91</v>
+      </c>
+      <c r="AH49">
+        <v>2.43</v>
+      </c>
+      <c r="AI49">
         <v>3.25</v>
-      </c>
-      <c r="R49">
-        <v>1.7</v>
-      </c>
-      <c r="S49">
-        <v>2.05</v>
-      </c>
-      <c r="T49">
-        <v>1.22</v>
-      </c>
-      <c r="U49">
-        <v>1.29</v>
-      </c>
-      <c r="V49">
-        <v>2</v>
-      </c>
-      <c r="W49">
-        <v>1.46</v>
-      </c>
-      <c r="X49">
-        <v>0.77</v>
-      </c>
-      <c r="Y49">
-        <v>1.53</v>
-      </c>
-      <c r="Z49">
-        <v>1.1</v>
-      </c>
-      <c r="AA49">
-        <v>2.63</v>
-      </c>
-      <c r="AB49">
-        <v>1.55</v>
-      </c>
-      <c r="AC49">
-        <v>8</v>
-      </c>
-      <c r="AD49">
-        <v>2.9</v>
-      </c>
-      <c r="AE49">
-        <v>1.29</v>
-      </c>
-      <c r="AF49">
-        <v>1.54</v>
-      </c>
-      <c r="AG49">
-        <v>1.93</v>
-      </c>
-      <c r="AH49">
-        <v>2.4</v>
-      </c>
-      <c r="AI49">
-        <v>3.15</v>
       </c>
     </row>
     <row r="50" spans="1:35">
@@ -6166,105 +6160,105 @@
         <v>117</v>
       </c>
       <c r="F50" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G50">
-        <v>1.51</v>
+        <v>1.68</v>
       </c>
       <c r="H50">
-        <v>4.42</v>
+        <v>3.63</v>
       </c>
       <c r="I50">
-        <v>6.15</v>
+        <v>4.05</v>
       </c>
       <c r="J50">
         <v>1.02</v>
       </c>
       <c r="K50">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="L50">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="M50">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="N50">
-        <v>1.58</v>
+        <v>1.71</v>
       </c>
       <c r="O50">
-        <v>2.33</v>
+        <v>2.12</v>
       </c>
       <c r="P50">
+        <v>1.33</v>
+      </c>
+      <c r="Q50">
+        <v>3.25</v>
+      </c>
+      <c r="R50">
+        <v>1.7</v>
+      </c>
+      <c r="S50">
+        <v>2.05</v>
+      </c>
+      <c r="T50">
+        <v>1.22</v>
+      </c>
+      <c r="U50">
         <v>1.29</v>
       </c>
-      <c r="Q50">
-        <v>3.5</v>
-      </c>
-      <c r="R50">
+      <c r="V50">
+        <v>2</v>
+      </c>
+      <c r="W50">
+        <v>1.46</v>
+      </c>
+      <c r="X50">
+        <v>0.77</v>
+      </c>
+      <c r="Y50">
         <v>1.53</v>
       </c>
-      <c r="S50">
-        <v>2.38</v>
-      </c>
-      <c r="T50">
-        <v>1.38</v>
-      </c>
-      <c r="U50">
-        <v>1.26</v>
-      </c>
-      <c r="V50">
-        <v>1.69</v>
-      </c>
-      <c r="W50">
-        <v>1.25</v>
-      </c>
-      <c r="X50">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="Y50">
-        <v>1.32</v>
-      </c>
       <c r="Z50">
-        <v>1.38</v>
+        <v>1.1</v>
       </c>
       <c r="AA50">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="AB50">
-        <v>1.85</v>
+        <v>1.55</v>
       </c>
       <c r="AC50">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AD50">
-        <v>2.28</v>
+        <v>2.9</v>
       </c>
       <c r="AE50">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="AF50">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="AG50">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="AH50">
-        <v>2.43</v>
+        <v>2.4</v>
       </c>
       <c r="AI50">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
     </row>
     <row r="51" spans="1:35">
       <c r="A51" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B51" s="2">
         <v>45178</v>
       </c>
       <c r="C51" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D51">
         <v>27</v>
@@ -6273,201 +6267,201 @@
         <v>118</v>
       </c>
       <c r="F51" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G51">
-        <v>1.81</v>
+        <v>1.73</v>
       </c>
       <c r="H51">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="I51">
-        <v>4.38</v>
+        <v>4.9</v>
       </c>
       <c r="J51">
-        <v>1.13</v>
+        <v>1.09</v>
       </c>
       <c r="K51">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="L51">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="M51">
+        <v>2.6</v>
+      </c>
+      <c r="N51">
+        <v>2.43</v>
+      </c>
+      <c r="O51">
+        <v>1.5</v>
+      </c>
+      <c r="P51">
+        <v>1.51</v>
+      </c>
+      <c r="Q51">
         <v>2.37</v>
       </c>
-      <c r="N51">
-        <v>2.5</v>
-      </c>
-      <c r="O51">
-        <v>1.43</v>
-      </c>
-      <c r="P51">
-        <v>1.6</v>
-      </c>
-      <c r="Q51">
-        <v>2.2</v>
-      </c>
       <c r="R51">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="S51">
-        <v>1.43</v>
+        <v>1.61</v>
       </c>
       <c r="T51">
+        <v>1.17</v>
+      </c>
+      <c r="U51">
+        <v>1.32</v>
+      </c>
+      <c r="V51">
+        <v>2.01</v>
+      </c>
+      <c r="W51">
+        <v>2.38</v>
+      </c>
+      <c r="X51">
+        <v>1.23</v>
+      </c>
+      <c r="Y51">
+        <v>1.61</v>
+      </c>
+      <c r="Z51">
         <v>1.14</v>
       </c>
-      <c r="U51">
-        <v>1.31</v>
-      </c>
-      <c r="V51">
-        <v>2.1</v>
-      </c>
-      <c r="W51">
-        <v>1.69</v>
-      </c>
-      <c r="X51">
-        <v>1.33</v>
-      </c>
-      <c r="Y51">
-        <v>1.64</v>
-      </c>
-      <c r="Z51">
-        <v>1.12</v>
-      </c>
       <c r="AA51">
-        <v>2.76</v>
+        <v>2.75</v>
       </c>
       <c r="AB51">
-        <v>1.45</v>
+        <v>1.38</v>
       </c>
       <c r="AC51">
         <v>8</v>
       </c>
       <c r="AD51">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="AE51">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="AF51">
-        <v>1.31</v>
+        <v>1.22</v>
       </c>
       <c r="AG51">
-        <v>1.57</v>
+        <v>1.41</v>
       </c>
       <c r="AH51">
-        <v>1.98</v>
+        <v>1.71</v>
       </c>
       <c r="AI51">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="52" spans="1:35">
       <c r="A52" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B52" s="2">
         <v>45178</v>
       </c>
       <c r="C52" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D52">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="E52" t="s">
         <v>119</v>
       </c>
       <c r="F52" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G52">
-        <v>1.76</v>
+        <v>1.84</v>
       </c>
       <c r="H52">
-        <v>3.18</v>
+        <v>3.8</v>
       </c>
       <c r="I52">
-        <v>4.38</v>
+        <v>3.3</v>
       </c>
       <c r="J52">
-        <v>1.09</v>
+        <v>1.02</v>
       </c>
       <c r="K52">
-        <v>6.5</v>
+        <v>17</v>
       </c>
       <c r="L52">
-        <v>1.45</v>
+        <v>1.18</v>
       </c>
       <c r="M52">
-        <v>2.6</v>
+        <v>4.75</v>
       </c>
       <c r="N52">
-        <v>2.46</v>
+        <v>1.58</v>
       </c>
       <c r="O52">
+        <v>2.35</v>
+      </c>
+      <c r="P52">
+        <v>1.29</v>
+      </c>
+      <c r="Q52">
+        <v>3.5</v>
+      </c>
+      <c r="R52">
+        <v>1.53</v>
+      </c>
+      <c r="S52">
+        <v>2.38</v>
+      </c>
+      <c r="T52">
+        <v>1.28</v>
+      </c>
+      <c r="U52">
+        <v>1.24</v>
+      </c>
+      <c r="V52">
+        <v>1.87</v>
+      </c>
+      <c r="W52">
+        <v>1.33</v>
+      </c>
+      <c r="X52">
+        <v>1.08</v>
+      </c>
+      <c r="Y52">
+        <v>1.69</v>
+      </c>
+      <c r="Z52">
+        <v>1.18</v>
+      </c>
+      <c r="AA52">
+        <v>2.87</v>
+      </c>
+      <c r="AB52">
+        <v>1.64</v>
+      </c>
+      <c r="AC52">
+        <v>7.5</v>
+      </c>
+      <c r="AD52">
+        <v>2.65</v>
+      </c>
+      <c r="AE52">
+        <v>1.26</v>
+      </c>
+      <c r="AF52">
         <v>1.48</v>
       </c>
-      <c r="P52">
-        <v>1.51</v>
-      </c>
-      <c r="Q52">
-        <v>2.37</v>
-      </c>
-      <c r="R52">
-        <v>2.25</v>
-      </c>
-      <c r="S52">
-        <v>1.61</v>
-      </c>
-      <c r="T52">
-        <v>1.17</v>
-      </c>
-      <c r="U52">
-        <v>1.32</v>
-      </c>
-      <c r="V52">
-        <v>2.01</v>
-      </c>
-      <c r="W52">
-        <v>2.38</v>
-      </c>
-      <c r="X52">
-        <v>1.23</v>
-      </c>
-      <c r="Y52">
-        <v>1.61</v>
-      </c>
-      <c r="Z52">
-        <v>1.14</v>
-      </c>
-      <c r="AA52">
-        <v>2.75</v>
-      </c>
-      <c r="AB52">
-        <v>1.38</v>
-      </c>
-      <c r="AC52">
-        <v>8</v>
-      </c>
-      <c r="AD52">
-        <v>4</v>
-      </c>
-      <c r="AE52">
-        <v>0</v>
-      </c>
-      <c r="AF52">
-        <v>1.22</v>
-      </c>
       <c r="AG52">
-        <v>1.41</v>
+        <v>1.84</v>
       </c>
       <c r="AH52">
-        <v>1.71</v>
+        <v>2.32</v>
       </c>
       <c r="AI52">
-        <v>2.2</v>
+        <v>3.05</v>
       </c>
     </row>
     <row r="53" spans="1:35">
@@ -6478,7 +6472,7 @@
         <v>45178</v>
       </c>
       <c r="C53" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -6487,34 +6481,34 @@
         <v>120</v>
       </c>
       <c r="F53" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G53">
-        <v>2.02</v>
+        <v>2.55</v>
       </c>
       <c r="H53">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="I53">
-        <v>3.55</v>
+        <v>2.25</v>
       </c>
       <c r="J53">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K53">
-        <v>17</v>
+        <v>12.5</v>
       </c>
       <c r="L53">
         <v>1.18</v>
       </c>
       <c r="M53">
-        <v>4.75</v>
+        <v>4.4</v>
       </c>
       <c r="N53">
-        <v>1.68</v>
+        <v>1.58</v>
       </c>
       <c r="O53">
-        <v>2.07</v>
+        <v>2.33</v>
       </c>
       <c r="P53">
         <v>1.29</v>
@@ -6523,164 +6517,57 @@
         <v>3.5</v>
       </c>
       <c r="R53">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S53">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="T53">
-        <v>1.28</v>
+        <v>1.65</v>
       </c>
       <c r="U53">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="V53">
-        <v>1.87</v>
+        <v>1.3</v>
       </c>
       <c r="W53">
-        <v>1.33</v>
+        <v>1.62</v>
       </c>
       <c r="X53">
         <v>1.08</v>
       </c>
       <c r="Y53">
-        <v>1.69</v>
+        <v>1.56</v>
       </c>
       <c r="Z53">
-        <v>1.18</v>
+        <v>1.5</v>
       </c>
       <c r="AA53">
-        <v>2.87</v>
+        <v>3.06</v>
       </c>
       <c r="AB53">
-        <v>1.64</v>
+        <v>2.1</v>
       </c>
       <c r="AC53">
         <v>7.5</v>
       </c>
       <c r="AD53">
-        <v>2.65</v>
+        <v>1.97</v>
       </c>
       <c r="AE53">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AF53">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="AG53">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="AH53">
         <v>2.32</v>
       </c>
       <c r="AI53">
-        <v>3.05</v>
-      </c>
-    </row>
-    <row r="54" spans="1:35">
-      <c r="A54" t="s">
-        <v>46</v>
-      </c>
-      <c r="B54" s="2">
-        <v>45178</v>
-      </c>
-      <c r="C54" t="s">
-        <v>68</v>
-      </c>
-      <c r="D54">
-        <v>0</v>
-      </c>
-      <c r="E54" t="s">
-        <v>121</v>
-      </c>
-      <c r="F54" t="s">
-        <v>174</v>
-      </c>
-      <c r="G54">
-        <v>2.9</v>
-      </c>
-      <c r="H54">
-        <v>3.65</v>
-      </c>
-      <c r="I54">
-        <v>2.32</v>
-      </c>
-      <c r="J54">
-        <v>1.03</v>
-      </c>
-      <c r="K54">
-        <v>12.5</v>
-      </c>
-      <c r="L54">
-        <v>1.18</v>
-      </c>
-      <c r="M54">
-        <v>4.4</v>
-      </c>
-      <c r="N54">
-        <v>1.68</v>
-      </c>
-      <c r="O54">
-        <v>2.07</v>
-      </c>
-      <c r="P54">
-        <v>1.29</v>
-      </c>
-      <c r="Q54">
-        <v>3.5</v>
-      </c>
-      <c r="R54">
-        <v>1.5</v>
-      </c>
-      <c r="S54">
-        <v>2.5</v>
-      </c>
-      <c r="T54">
-        <v>1.65</v>
-      </c>
-      <c r="U54">
-        <v>1.27</v>
-      </c>
-      <c r="V54">
-        <v>1.3</v>
-      </c>
-      <c r="W54">
-        <v>1.62</v>
-      </c>
-      <c r="X54">
-        <v>1.08</v>
-      </c>
-      <c r="Y54">
-        <v>1.56</v>
-      </c>
-      <c r="Z54">
-        <v>1.5</v>
-      </c>
-      <c r="AA54">
-        <v>3.06</v>
-      </c>
-      <c r="AB54">
-        <v>2.1</v>
-      </c>
-      <c r="AC54">
-        <v>7.5</v>
-      </c>
-      <c r="AD54">
-        <v>1.97</v>
-      </c>
-      <c r="AE54">
-        <v>1.25</v>
-      </c>
-      <c r="AF54">
-        <v>1.49</v>
-      </c>
-      <c r="AG54">
-        <v>1.83</v>
-      </c>
-      <c r="AH54">
-        <v>2.32</v>
-      </c>
-      <c r="AI54">
         <v>3</v>
       </c>
     </row>
